--- a/Initial presentation/Codi/PGD/Map_S.xlsx
+++ b/Initial presentation/Codi/PGD/Map_S.xlsx
@@ -24,954 +24,924 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="316">
-  <si>
-    <t>0j</t>
-  </si>
-  <si>
-    <t>(-0.05+0j)</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="306">
   <si>
     <t>(-0.1+0j)</t>
   </si>
   <si>
-    <t>(0.016140865872888398+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04429112424343711+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09485706711276665+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09242741600860982+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09397479426042016+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08927598918600838+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08546582040952293+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08877201781186403+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08532931055390558+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08761605673389343+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08358762142300419+0j)</t>
-  </si>
-  <si>
-    <t>(0.032281731745776795+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03858224848687422+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08971413422553329+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08485483201721963+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08794958852084031+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07855197837201675+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07093164081904585+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07754403562372804+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07065862110781117+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07523211346778684+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06717524284600837+0j)</t>
-  </si>
-  <si>
-    <t>(0.04842259761866519+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03287337273031133+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08457120133829994+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07728224802582945+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08192438278126046+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06782796755802512+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05639746122856877+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06631605343559205+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05598793166171675+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06284817020168026+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05076286426901254+0j)</t>
-  </si>
-  <si>
-    <t>(0.06456346349155359+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02716449697374844+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07942826845106658+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06970966403443926+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07589917704168062+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05710395674403348+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0418632816380917+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05508807124745607+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04131724221562233+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05046422693557368+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03435048569201672+0j)</t>
-  </si>
-  <si>
-    <t>(0.09684519523733039+0j)</t>
-  </si>
-  <si>
-    <t>(-0.015746745460622658+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06914240267659987+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05456449605165889+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0638487655625209+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03565593511605021+0j)</t>
-  </si>
-  <si>
-    <t>(-0.012794922457137536+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03263210687118409+0j)</t>
-  </si>
-  <si>
-    <t>(-0.011975863323433492+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02569634040336051+0j)</t>
-  </si>
-  <si>
-    <t>(-0.001525728538025073+0j)</t>
-  </si>
-  <si>
-    <t>(0.12912692698310718+0j)</t>
-  </si>
-  <si>
-    <t>(-0.004328993947496876+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05885653690213316+0j)</t>
-  </si>
-  <si>
-    <t>(-0.039419328068878524+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05179835408336121+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01420791348806695+0j)</t>
-  </si>
-  <si>
-    <t>(0.016273436723816606+0j)</t>
-  </si>
-  <si>
-    <t>(-0.010176142494912138+0j)</t>
-  </si>
-  <si>
-    <t>(0.017365515568755346+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0009284538711473583+0j)</t>
-  </si>
-  <si>
-    <t>(0.03129902861596656+0j)</t>
-  </si>
-  <si>
-    <t>(0.048422597618665186+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03287337273031134+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05639746122856878+0j)</t>
-  </si>
-  <si>
-    <t>(-0.055987931661716756+0j)</t>
-  </si>
-  <si>
-    <t>(-0.050762864269012546+0j)</t>
-  </si>
-  <si>
-    <t>(0.09684519523733037+0j)</t>
-  </si>
-  <si>
-    <t>(-0.015746745460622665+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06914240267659988+0j)</t>
-  </si>
-  <si>
-    <t>(-0.054564496051658896+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06384876556252092+0j)</t>
-  </si>
-  <si>
-    <t>(-0.035655935116050225+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01279492245713755+0j)</t>
-  </si>
-  <si>
-    <t>(-0.032632106871184105+0j)</t>
-  </si>
-  <si>
-    <t>(-0.011975863323433505+0j)</t>
-  </si>
-  <si>
-    <t>(-0.025696340403360537+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0015257285380250868+0j)</t>
-  </si>
-  <si>
-    <t>(0.1452677928559956+0j)</t>
-  </si>
-  <si>
-    <t>(0.001379881809066008+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0537136040148998+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03184674407748833+0j)</t>
-  </si>
-  <si>
-    <t>(-0.045773148343781364+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0034839026740753204+0j)</t>
-  </si>
-  <si>
-    <t>(0.030807616314293684+0j)</t>
-  </si>
-  <si>
-    <t>(0.0010518396932238522+0j)</t>
-  </si>
-  <si>
-    <t>(0.032036205014849745+0j)</t>
-  </si>
-  <si>
-    <t>(0.011455489394959217+0j)</t>
-  </si>
-  <si>
-    <t>(0.04771140719296238+0j)</t>
-  </si>
-  <si>
-    <t>(0.19369039047466075+0j)</t>
-  </si>
-  <si>
-    <t>(0.018506509078754674+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03828480535319974+0j)</t>
-  </si>
-  <si>
-    <t>(-0.009128992103317787+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02769753112504182+0j)</t>
-  </si>
-  <si>
-    <t>(0.028688129767899556+0j)</t>
-  </si>
-  <si>
-    <t>(0.0744101550857249+0j)</t>
-  </si>
-  <si>
-    <t>(0.034735786257631796+0j)</t>
-  </si>
-  <si>
-    <t>(0.076048273353133+0j)</t>
-  </si>
-  <si>
-    <t>(0.04860731919327893+0j)</t>
-  </si>
-  <si>
-    <t>(0.09694854292394983+0j)</t>
-  </si>
-  <si>
-    <t>(0.19369039047466077+0j)</t>
-  </si>
-  <si>
-    <t>(0.018506509078754688+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03828480535319973+0j)</t>
-  </si>
-  <si>
-    <t>(-0.009128992103317773+0j)</t>
-  </si>
-  <si>
-    <t>(-0.027697531125041808+0j)</t>
-  </si>
-  <si>
-    <t>(0.028688129767899584+0j)</t>
-  </si>
-  <si>
-    <t>(0.07441015508572493+0j)</t>
-  </si>
-  <si>
-    <t>(0.03473578625763182+0j)</t>
-  </si>
-  <si>
-    <t>(0.07604827335313302+0j)</t>
-  </si>
-  <si>
-    <t>(0.048607319193278986+0j)</t>
-  </si>
-  <si>
-    <t>(0.09694854292394986+0j)</t>
-  </si>
-  <si>
-    <t>(0.25825385396621436+0j)</t>
-  </si>
-  <si>
-    <t>(0.04134201210500625+0j)</t>
-  </si>
-  <si>
-    <t>(-0.017713073804266316+0j)</t>
-  </si>
-  <si>
-    <t>(0.021161343862242957+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0035967081667224177+0j)</t>
-  </si>
-  <si>
-    <t>(0.0715841730238661+0j)</t>
-  </si>
-  <si>
-    <t>(0.13254687344763322+0j)</t>
-  </si>
-  <si>
-    <t>(0.07964771501017573+0j)</t>
-  </si>
-  <si>
-    <t>(0.1347310311375107+0j)</t>
-  </si>
-  <si>
-    <t>(0.09814309225770529+0j)</t>
-  </si>
-  <si>
-    <t>(0.16259805723193313+0j)</t>
-  </si>
-  <si>
-    <t>(0.08070432936444198+0j)</t>
-  </si>
-  <si>
-    <t>(-0.021455621217185552+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07428533556383322+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06213708004304908+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06987397130210077+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04637994593004185+0j)</t>
-  </si>
-  <si>
-    <t>(-0.027329102047614615+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04386008905932009+0j)</t>
-  </si>
-  <si>
-    <t>(-0.026646552769527918+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03808028366946711+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01793810711502089+0j)</t>
-  </si>
-  <si>
-    <t>(0.16140865872888396+0j)</t>
-  </si>
-  <si>
-    <t>(0.007088757565628899+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04857067112766644+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02427416008609816+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03974794260420152+0j)</t>
-  </si>
-  <si>
-    <t>(0.00724010813991631+0j)</t>
-  </si>
-  <si>
-    <t>(0.045341795904770776+0j)</t>
-  </si>
-  <si>
-    <t>(0.012279821881359829+0j)</t>
-  </si>
-  <si>
-    <t>(0.04670689446094417+0j)</t>
-  </si>
-  <si>
-    <t>(0.02383943266106578+0j)</t>
-  </si>
-  <si>
-    <t>(0.06412378576995822+0j)</t>
-  </si>
-  <si>
-    <t>(0.24211298809332596+0j)</t>
-  </si>
-  <si>
-    <t>(0.03563313634844337+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02285600669149966+0j)</t>
-  </si>
-  <si>
-    <t>(0.01358875987085277+0j)</t>
-  </si>
-  <si>
-    <t>(-0.009621913906302265+0j)</t>
-  </si>
-  <si>
-    <t>(0.060860162209874474+0j)</t>
-  </si>
-  <si>
-    <t>(0.11801269385715618+0j)</t>
-  </si>
-  <si>
-    <t>(0.06841973282203975+0j)</t>
-  </si>
-  <si>
-    <t>(0.12006034169141627+0j)</t>
-  </si>
-  <si>
-    <t>(0.0857591489915987+0j)</t>
-  </si>
-  <si>
-    <t>(0.14618567865493734+0j)</t>
-  </si>
-  <si>
-    <t>(0.3228173174577679+0j)</t>
-  </si>
-  <si>
-    <t>(0.0641775151312578+0j)</t>
-  </si>
-  <si>
-    <t>(0.00285865774466712+0j)</t>
-  </si>
-  <si>
-    <t>(0.05145167982780369+0j)</t>
-  </si>
-  <si>
-    <t>(0.020504114791596972+0j)</t>
-  </si>
-  <si>
-    <t>(0.11448021627983263+0j)</t>
-  </si>
-  <si>
-    <t>(0.19068359180954156+0j)</t>
-  </si>
-  <si>
-    <t>(0.12455964376271966+0j)</t>
-  </si>
-  <si>
-    <t>(0.19341378892188835+0j)</t>
-  </si>
-  <si>
-    <t>(0.14767886532213156+0j)</t>
-  </si>
-  <si>
-    <t>(0.22824757153991646+0j)</t>
-  </si>
-  <si>
-    <t>(0.2905355857119912+0j)</t>
-  </si>
-  <si>
-    <t>(0.05275976361813202+0j)</t>
-  </si>
-  <si>
-    <t>(-0.007427208029799598+0j)</t>
-  </si>
-  <si>
-    <t>(0.03630651184502334+0j)</t>
-  </si>
-  <si>
-    <t>(0.008453703312437277+0j)</t>
-  </si>
-  <si>
-    <t>(0.09303219465184936+0j)</t>
-  </si>
-  <si>
-    <t>(0.16161523262858737+0j)</t>
-  </si>
-  <si>
-    <t>(0.10210367938644771+0j)</t>
-  </si>
-  <si>
-    <t>(0.1640724100296995+0j)</t>
-  </si>
-  <si>
-    <t>(0.12291097878991844+0j)</t>
-  </si>
-  <si>
-    <t>(0.19542281438592476+0j)</t>
-  </si>
-  <si>
-    <t>(0.3873807809493215+0j)</t>
-  </si>
-  <si>
-    <t>(0.08701301815750935+0j)</t>
-  </si>
-  <si>
-    <t>(0.02343038929360053+0j)</t>
-  </si>
-  <si>
-    <t>(0.08174201579336443+0j)</t>
-  </si>
-  <si>
-    <t>(0.04460493774991636+0j)</t>
-  </si>
-  <si>
-    <t>(0.15737625953579912+0j)</t>
-  </si>
-  <si>
-    <t>(0.24882031017144982+0j)</t>
-  </si>
-  <si>
-    <t>(0.1694715725152636+0j)</t>
-  </si>
-  <si>
-    <t>(0.252096546706266+0j)</t>
-  </si>
-  <si>
-    <t>(0.19721463838655787+0j)</t>
-  </si>
-  <si>
-    <t>(0.29389708584789964+0j)</t>
-  </si>
-  <si>
-    <t>(0.11298606111021876+0j)</t>
-  </si>
-  <si>
-    <t>(-0.010037869704059774+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06399946978936652+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04699191206026872+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05782355982294106+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02493192430205858+0j)</t>
-  </si>
-  <si>
-    <t>(0.001739257133339528+0j)</t>
-  </si>
-  <si>
-    <t>(-0.021404124683048115+0j)</t>
-  </si>
-  <si>
-    <t>(0.0026948261226609205+0j)</t>
-  </si>
-  <si>
-    <t>(-0.013312397137253934+0j)</t>
-  </si>
-  <si>
-    <t>(0.014886650038970745+0j)</t>
-  </si>
-  <si>
-    <t>(0.22597212222043753+0j)</t>
-  </si>
-  <si>
-    <t>(0.029924260591880456+0j)</t>
-  </si>
-  <si>
-    <t>(-0.027998939578733034+0j)</t>
-  </si>
-  <si>
-    <t>(0.006016175879462571+0j)</t>
-  </si>
-  <si>
-    <t>(-0.015647119645882113+0j)</t>
-  </si>
-  <si>
-    <t>(0.050136151395882844+0j)</t>
-  </si>
-  <si>
-    <t>(0.10347851426667906+0j)</t>
-  </si>
-  <si>
-    <t>(0.057191750633903776+0j)</t>
-  </si>
-  <si>
-    <t>(0.10538965224532185+0j)</t>
-  </si>
-  <si>
-    <t>(0.07337520572549214+0j)</t>
-  </si>
-  <si>
-    <t>(0.1297733000779415+0j)</t>
-  </si>
-  <si>
-    <t>(0.33895818333065636+0j)</t>
-  </si>
-  <si>
-    <t>(0.0698863908878207+0j)</t>
-  </si>
-  <si>
-    <t>(0.008001590631900465+0j)</t>
-  </si>
-  <si>
-    <t>(0.05902426381919387+0j)</t>
-  </si>
-  <si>
-    <t>(0.026529320531176848+0j)</t>
-  </si>
-  <si>
-    <t>(0.12520422709382428+0j)</t>
-  </si>
-  <si>
-    <t>(0.20521777140001865+0j)</t>
-  </si>
-  <si>
-    <t>(0.13578762595085567+0j)</t>
-  </si>
-  <si>
-    <t>(0.2080844783679828+0j)</t>
-  </si>
-  <si>
-    <t>(0.1600628085882382+0j)</t>
-  </si>
-  <si>
-    <t>(0.24465995011691224+0j)</t>
-  </si>
-  <si>
-    <t>(0.45194424444087505+0j)</t>
-  </si>
-  <si>
-    <t>(0.10984852118376091+0j)</t>
-  </si>
-  <si>
-    <t>(0.04400212084253394+0j)</t>
-  </si>
-  <si>
-    <t>(0.11203235175892515+0j)</t>
-  </si>
-  <si>
-    <t>(0.06870576070823578+0j)</t>
-  </si>
-  <si>
-    <t>(0.2002723027917657+0j)</t>
-  </si>
-  <si>
-    <t>(0.30695702853335816+0j)</t>
-  </si>
-  <si>
-    <t>(0.21438350126780756+0j)</t>
-  </si>
-  <si>
-    <t>(0.3107793044906437+0j)</t>
-  </si>
-  <si>
-    <t>(0.24675041145098428+0j)</t>
-  </si>
-  <si>
-    <t>(0.359546600155883+0j)</t>
-  </si>
-  <si>
-    <t>(0.38738078094932155+0j)</t>
-  </si>
-  <si>
-    <t>(0.08701301815750938+0j)</t>
-  </si>
-  <si>
-    <t>(0.023430389293600543+0j)</t>
-  </si>
-  <si>
-    <t>(0.08174201579336446+0j)</t>
-  </si>
-  <si>
-    <t>(0.04460493774991639+0j)</t>
-  </si>
-  <si>
-    <t>(0.15737625953579917+0j)</t>
-  </si>
-  <si>
-    <t>(0.24882031017144987+0j)</t>
-  </si>
-  <si>
-    <t>(0.16947157251526365+0j)</t>
-  </si>
-  <si>
-    <t>(0.19721463838655798+0j)</t>
-  </si>
-  <si>
-    <t>(0.29389708584789975+0j)</t>
-  </si>
-  <si>
-    <t>(0.5165077079324287+0j)</t>
-  </si>
-  <si>
-    <t>(0.13268402421001252+0j)</t>
-  </si>
-  <si>
-    <t>(0.06457385239146737+0j)</t>
-  </si>
-  <si>
-    <t>(0.14232268772448592+0j)</t>
-  </si>
-  <si>
-    <t>(0.09280658366655517+0j)</t>
-  </si>
-  <si>
-    <t>(0.24316834604773221+0j)</t>
-  </si>
-  <si>
-    <t>(0.3650937468952664+0j)</t>
-  </si>
-  <si>
-    <t>(0.2592954300203515+0j)</t>
-  </si>
-  <si>
-    <t>(0.36946206227502143+0j)</t>
-  </si>
-  <si>
-    <t>(0.29628618451541056+0j)</t>
-  </si>
-  <si>
-    <t>(0.4251961144638663+0j)</t>
-  </si>
-  <si>
-    <t>(0.001379881809066022+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04577314834378136+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0034839026740753065+0j)</t>
-  </si>
-  <si>
-    <t>(0.001051839693223866+0j)</t>
-  </si>
-  <si>
-    <t>(0.03203620501484977+0j)</t>
-  </si>
-  <si>
-    <t>(0.04771140719296241+0j)</t>
-  </si>
-  <si>
-    <t>(0.05275976361813205+0j)</t>
-  </si>
-  <si>
-    <t>(0.008453703312437291+0j)</t>
-  </si>
-  <si>
-    <t>(0.09303219465184939+0j)</t>
-  </si>
-  <si>
-    <t>(0.10210367938644774+0j)</t>
-  </si>
-  <si>
-    <t>(0.16407241002969955+0j)</t>
-  </si>
-  <si>
-    <t>(0.19542281438592482+0j)</t>
-  </si>
-  <si>
-    <t>(0.4358033785679868+0j)</t>
-  </si>
-  <si>
-    <t>(0.10413964542719807+0j)</t>
-  </si>
-  <si>
-    <t>(0.038859187955300634+0j)</t>
-  </si>
-  <si>
-    <t>(0.10445976776753502+0j)</t>
-  </si>
-  <si>
-    <t>(0.06268055496865596+0j)</t>
-  </si>
-  <si>
-    <t>(0.1895482919777741+0j)</t>
-  </si>
-  <si>
-    <t>(0.2924228489428812+0j)</t>
-  </si>
-  <si>
-    <t>(0.20315551907967164+0j)</t>
-  </si>
-  <si>
-    <t>(0.29610861504454933+0j)</t>
-  </si>
-  <si>
-    <t>(0.2343664681848777+0j)</t>
-  </si>
-  <si>
-    <t>(0.3431342215788873+0j)</t>
-  </si>
-  <si>
-    <t>(0.5810711714239823+0j)</t>
-  </si>
-  <si>
-    <t>(0.1555195272362641+0j)</t>
-  </si>
-  <si>
-    <t>(0.08514558394040081+0j)</t>
-  </si>
-  <si>
-    <t>(0.1726130236900467+0j)</t>
-  </si>
-  <si>
-    <t>(0.11690740662487459+0j)</t>
-  </si>
-  <si>
-    <t>(0.2860643893036988+0j)</t>
-  </si>
-  <si>
-    <t>(0.4232304652571748+0j)</t>
-  </si>
-  <si>
-    <t>(0.3042073587728955+0j)</t>
-  </si>
-  <si>
-    <t>(0.42814482005939913+0j)</t>
-  </si>
-  <si>
-    <t>(0.3458219575798369+0j)</t>
-  </si>
-  <si>
-    <t>(0.4908456287718497+0j)</t>
-  </si>
-  <si>
-    <t>(0.4842259761866519+0j)</t>
-  </si>
-  <si>
-    <t>(0.12126627269688674+0j)</t>
-  </si>
-  <si>
-    <t>(0.05428798661700068+0j)</t>
-  </si>
-  <si>
-    <t>(0.12717751974170555+0j)</t>
-  </si>
-  <si>
-    <t>(0.08075617218739548+0j)</t>
-  </si>
-  <si>
-    <t>(0.22172032441974895+0j)</t>
-  </si>
-  <si>
-    <t>(0.33602538771431234+0j)</t>
-  </si>
-  <si>
-    <t>(0.2368394656440795+0j)</t>
-  </si>
-  <si>
-    <t>(0.3401206833828325+0j)</t>
-  </si>
-  <si>
-    <t>(0.2715182979831974+0j)</t>
-  </si>
-  <si>
-    <t>(0.3923713573098747+0j)</t>
-  </si>
-  <si>
-    <t>(0.6456346349155359+0j)</t>
-  </si>
-  <si>
-    <t>(0.1783550302625156+0j)</t>
-  </si>
-  <si>
-    <t>(0.10571731548933425+0j)</t>
-  </si>
-  <si>
-    <t>(0.20290335965560738+0j)</t>
-  </si>
-  <si>
-    <t>(0.14100822958319395+0j)</t>
-  </si>
-  <si>
-    <t>(0.32896043255966523+0j)</t>
-  </si>
-  <si>
-    <t>(0.48136718361908315+0j)</t>
-  </si>
-  <si>
-    <t>(0.3491192875254393+0j)</t>
-  </si>
-  <si>
-    <t>(0.4868275778437767+0j)</t>
-  </si>
-  <si>
-    <t>(0.39535773064426316+0j)</t>
-  </si>
-  <si>
-    <t>(0.5564951430798329+0j)</t>
+    <t>(-0.09580061413492212+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08649075635067886+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09006722267142403+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09507413895052005+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09839730897260174+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09896766559647754+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09063799767925365+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0940161975174729+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08642539197846508+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08594422099047798+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08467696073855535+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09160122826984424+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07298151270135772+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08013444534284807+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09014827790104009+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09679461794520346+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0979353311929551+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08127599535850728+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0880323950349458+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07285078395693015+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07188844198095595+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0693539214771107+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08740184240476634+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05947226905203658+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07020166801427209+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08522241685156012+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09519192691780519+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09690299678943264+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07191399303776091+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08204859255241868+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05927617593539522+0j)</t>
+  </si>
+  <si>
+    <t>(-0.057832662971433926+0j)</t>
+  </si>
+  <si>
+    <t>(-0.054030882215666036+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08320245653968845+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04596302540271544+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06026889068569613+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08029655580208017+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09358923589040691+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09587066238591019+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06255199071701456+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07606479006989159+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0457015679138603+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04377688396191191+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03870784295422139+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07480368480953267+0j)</t>
+  </si>
+  <si>
+    <t>(-0.01894453810407315+0j)</t>
+  </si>
+  <si>
+    <t>(-0.040403336028544186+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07044483370312025+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09038385383561037+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09380599357886528+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04382798607552183+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06409718510483736+0j)</t>
+  </si>
+  <si>
+    <t>(-0.018552351870790434+0j)</t>
+  </si>
+  <si>
+    <t>(-0.015665325942867847+0j)</t>
+  </si>
+  <si>
+    <t>(-0.008061764431332066+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0664049130793769+0j)</t>
+  </si>
+  <si>
+    <t>(0.008073949194569122+0j)</t>
+  </si>
+  <si>
+    <t>(-0.020537781371392255+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06059311160416034+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08717847178081382+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09174132477182037+0j)</t>
+  </si>
+  <si>
+    <t>(-0.025103981434029116+0j)</t>
+  </si>
+  <si>
+    <t>(-0.052129580139783166+0j)</t>
+  </si>
+  <si>
+    <t>(0.008596864172279409+0j)</t>
+  </si>
+  <si>
+    <t>(0.012446232076176192+0j)</t>
+  </si>
+  <si>
+    <t>(0.022584314091557228+0j)</t>
+  </si>
+  <si>
+    <t>(-0.059472269052036585+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0702016680142721+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07191399303776093+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0820485925524187+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05927617593539523+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05783266297143393+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05403088221566604+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07480368480953269+0j)</t>
+  </si>
+  <si>
+    <t>(-0.018944538104073164+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04040333602854419+0j)</t>
+  </si>
+  <si>
+    <t>(-0.043827986075521845+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06409718510483738+0j)</t>
+  </si>
+  <si>
+    <t>(-0.01855235187079045+0j)</t>
+  </si>
+  <si>
+    <t>(-0.01566532594286786+0j)</t>
+  </si>
+  <si>
+    <t>(-0.00806176443133208+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06220552721429902+0j)</t>
+  </si>
+  <si>
+    <t>(0.021583192843890264+0j)</t>
+  </si>
+  <si>
+    <t>(-0.01060500404281628+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05566725055468038+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08557578075341554+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09070899036829791+0j)</t>
+  </si>
+  <si>
+    <t>(-0.01574197911328276+0j)</t>
+  </si>
+  <si>
+    <t>(-0.046145777657256054+0j)</t>
+  </si>
+  <si>
+    <t>(0.022171472193814337+0j)</t>
+  </si>
+  <si>
+    <t>(0.02650201108569822+0j)</t>
+  </si>
+  <si>
+    <t>(0.03790735335300191+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04960736961906536+0j)</t>
+  </si>
+  <si>
+    <t>(0.06211092379185368+0j)</t>
+  </si>
+  <si>
+    <t>(0.01919332794291162+0j)</t>
+  </si>
+  <si>
+    <t>(-0.040889667406240504+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08076770767122073+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08761198715773054+0j)</t>
+  </si>
+  <si>
+    <t>(0.012344027848956315+0j)</t>
+  </si>
+  <si>
+    <t>(-0.028194370209674746+0j)</t>
+  </si>
+  <si>
+    <t>(0.06289529625841911+0j)</t>
+  </si>
+  <si>
+    <t>(0.06866934811426428+0j)</t>
+  </si>
+  <si>
+    <t>(0.08387647113733585+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04960736961906535+0j)</t>
+  </si>
+  <si>
+    <t>(0.062110923791853706+0j)</t>
+  </si>
+  <si>
+    <t>(0.019193327942911634+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0408896674062405+0j)</t>
+  </si>
+  <si>
+    <t>(0.012344027848956343+0j)</t>
+  </si>
+  <si>
+    <t>(-0.028194370209674732+0j)</t>
+  </si>
+  <si>
+    <t>(0.06289529625841914+0j)</t>
+  </si>
+  <si>
+    <t>(0.06866934811426431+0j)</t>
+  </si>
+  <si>
+    <t>(0.08387647113733587+0j)</t>
+  </si>
+  <si>
+    <t>(-0.032809826158753816+0j)</t>
+  </si>
+  <si>
+    <t>(0.11614789838913825+0j)</t>
+  </si>
+  <si>
+    <t>(0.058924437257215495+0j)</t>
+  </si>
+  <si>
+    <t>(-0.02118622320832067+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07435694356162764+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08348264954364072+0j)</t>
+  </si>
+  <si>
+    <t>(0.049792037131941774+0j)</t>
+  </si>
+  <si>
+    <t>(-0.004259160279566326+0j)</t>
+  </si>
+  <si>
+    <t>(0.11719372834455882+0j)</t>
+  </si>
+  <si>
+    <t>(0.12489246415235239+0j)</t>
+  </si>
+  <si>
+    <t>(0.14516862818311446+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07900307067461057+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03245378175339429+0j)</t>
+  </si>
+  <si>
+    <t>(-0.050336113357120155+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07537069475260022+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09198654486300864+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09483832798238773+0j)</t>
+  </si>
+  <si>
+    <t>(-0.053189988396268206+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07008098758736449+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03212695989232538+0j)</t>
+  </si>
+  <si>
+    <t>(-0.029721104952389873+0j)</t>
+  </si>
+  <si>
+    <t>(-0.023384803692776734+0j)</t>
+  </si>
+  <si>
+    <t>(-0.058006141349221135+0j)</t>
+  </si>
+  <si>
+    <t>(0.03509243649321142+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0006722267142403038+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05074138950520042+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08397308972601727+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08967665596477545+0j)</t>
+  </si>
+  <si>
+    <t>(-0.006379976792536407+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04016197517472896+0j)</t>
+  </si>
+  <si>
+    <t>(0.03574608021534925+0j)</t>
+  </si>
+  <si>
+    <t>(0.04055779009522026+0j)</t>
+  </si>
+  <si>
+    <t>(0.05323039261444654+0j)</t>
+  </si>
+  <si>
+    <t>(-0.037009212023831686+0j)</t>
+  </si>
+  <si>
+    <t>(0.10263865473981715+0j)</t>
+  </si>
+  <si>
+    <t>(0.04899165992863955+0j)</t>
+  </si>
+  <si>
+    <t>(-0.026112084257800622+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07595963458902591+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08451498394716317+0j)</t>
+  </si>
+  <si>
+    <t>(0.04043003481119542+0j)</t>
+  </si>
+  <si>
+    <t>(-0.010242962762093424+0j)</t>
+  </si>
+  <si>
+    <t>(0.1036191203230239+0j)</t>
+  </si>
+  <si>
+    <t>(0.1108366851428304+0j)</t>
+  </si>
+  <si>
+    <t>(0.12984558892166984+0j)</t>
+  </si>
+  <si>
+    <t>(-0.016012282698442265+0j)</t>
+  </si>
+  <si>
+    <t>(0.17018487298642285+0j)</t>
+  </si>
+  <si>
+    <t>(0.0986555465715194+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0014827790104008365+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06794617945203454+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0793533119295509+0j)</t>
+  </si>
+  <si>
+    <t>(0.08724004641492719+0j)</t>
+  </si>
+  <si>
+    <t>(0.01967604965054208+0j)</t>
+  </si>
+  <si>
+    <t>(0.1714921604306985+0j)</t>
+  </si>
+  <si>
+    <t>(0.18111558019044052+0j)</t>
+  </si>
+  <si>
+    <t>(0.20646078522889308+0j)</t>
+  </si>
+  <si>
+    <t>(-0.024411054428598034+0j)</t>
+  </si>
+  <si>
+    <t>(0.14316638568778053+0j)</t>
+  </si>
+  <si>
+    <t>(0.07878999191436745+0j)</t>
+  </si>
+  <si>
+    <t>(-0.011334501109360753+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07115156150683109+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08141798073659581+0j)</t>
+  </si>
+  <si>
+    <t>(0.06851604177343448+0j)</t>
+  </si>
+  <si>
+    <t>(0.007708444685487897+0j)</t>
+  </si>
+  <si>
+    <t>(0.14434294438762868+0j)</t>
+  </si>
+  <si>
+    <t>(0.15300402217139644+0j)</t>
+  </si>
+  <si>
+    <t>(0.17581470670600383+0j)</t>
+  </si>
+  <si>
+    <t>(0.0007852607618692858+0j)</t>
+  </si>
+  <si>
+    <t>(0.22422184758370736+0j)</t>
+  </si>
+  <si>
+    <t>(0.13838665588582325+0j)</t>
+  </si>
+  <si>
+    <t>(0.018220665187518997+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06153541534244145+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07522397431546107+0j)</t>
+  </si>
+  <si>
+    <t>(0.12468805569791264+0j)</t>
+  </si>
+  <si>
+    <t>(0.04361125958065051+0j)</t>
+  </si>
+  <si>
+    <t>(0.22579059251683822+0j)</t>
+  </si>
+  <si>
+    <t>(0.23733869622852857+0j)</t>
+  </si>
+  <si>
+    <t>(0.2677529422746717+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0706042989444548+0j)</t>
+  </si>
+  <si>
+    <t>(-0.005435294454752021+0j)</t>
+  </si>
+  <si>
+    <t>(-0.030470558699968217+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06551897265364029+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08878116280821209+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09277365917534282+0j)</t>
+  </si>
+  <si>
+    <t>(-0.034465983754775484+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05811338262231027+0j)</t>
+  </si>
+  <si>
+    <t>(-0.00497774384925552+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0016095469333458345+0j)</t>
+  </si>
+  <si>
+    <t>(0.007261274830112588+0j)</t>
+  </si>
+  <si>
+    <t>(-0.041208597888909584+0j)</t>
+  </si>
+  <si>
+    <t>(0.08912941109049596+0j)</t>
+  </si>
+  <si>
+    <t>(0.03905888260006357+0j)</t>
+  </si>
+  <si>
+    <t>(-0.031037945307280587+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07756232561642418+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08554731835068563+0j)</t>
+  </si>
+  <si>
+    <t>(0.031068032490449038+0j)</t>
+  </si>
+  <si>
+    <t>(-0.016226765244620536+0j)</t>
+  </si>
+  <si>
+    <t>(0.09004451230148897+0j)</t>
+  </si>
+  <si>
+    <t>(0.09678090613330834+0j)</t>
+  </si>
+  <si>
+    <t>(0.11452254966022518+0j)</t>
+  </si>
+  <si>
+    <t>(-0.011812896833364367+0j)</t>
+  </si>
+  <si>
+    <t>(0.183694116635744+0j)</t>
+  </si>
+  <si>
+    <t>(0.10858832390009537+0j)</t>
+  </si>
+  <si>
+    <t>(0.003443082039079143+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06634348842463626+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07832097752602844+0j)</t>
+  </si>
+  <si>
+    <t>(0.0966020487356736+0j)</t>
+  </si>
+  <si>
+    <t>(0.025659852133069205+0j)</t>
+  </si>
+  <si>
+    <t>(0.1850667684522335+0j)</t>
+  </si>
+  <si>
+    <t>(0.19517135919996256+0j)</t>
+  </si>
+  <si>
+    <t>(0.22178382449033782+0j)</t>
+  </si>
+  <si>
+    <t>(0.017582804222180837+0j)</t>
+  </si>
+  <si>
+    <t>(0.27825882218099196+0j)</t>
+  </si>
+  <si>
+    <t>(0.17811776520012715+0j)</t>
+  </si>
+  <si>
+    <t>(0.03792410938543883+0j)</t>
+  </si>
+  <si>
+    <t>(-0.055124651232848355+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07109463670137126+0j)</t>
+  </si>
+  <si>
+    <t>(0.16213606498089808+0j)</t>
+  </si>
+  <si>
+    <t>(0.06754646951075893+0j)</t>
+  </si>
+  <si>
+    <t>(0.2800890246029779+0j)</t>
+  </si>
+  <si>
+    <t>(0.2935618122666167+0j)</t>
+  </si>
+  <si>
+    <t>(0.32904509932045034+0j)</t>
+  </si>
+  <si>
+    <t>(0.0007852607618692997+0j)</t>
+  </si>
+  <si>
+    <t>(0.22422184758370742+0j)</t>
+  </si>
+  <si>
+    <t>(0.13838665588582327+0j)</t>
+  </si>
+  <si>
+    <t>(0.01822066518751901+0j)</t>
+  </si>
+  <si>
+    <t>(-0.061535415342441446+0j)</t>
+  </si>
+  <si>
+    <t>(0.12468805569791269+0j)</t>
+  </si>
+  <si>
+    <t>(0.04361125958065054+0j)</t>
+  </si>
+  <si>
+    <t>(0.22579059251683828+0j)</t>
+  </si>
+  <si>
+    <t>(0.23733869622852863+0j)</t>
+  </si>
+  <si>
+    <t>(0.034380347682492374+0j)</t>
+  </si>
+  <si>
+    <t>(0.3322957967782765+0j)</t>
+  </si>
+  <si>
+    <t>(0.217848874514431+0j)</t>
+  </si>
+  <si>
+    <t>(0.057627553583358665+0j)</t>
+  </si>
+  <si>
+    <t>(-0.048713887123255264+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06696529908728144+0j)</t>
+  </si>
+  <si>
+    <t>(0.19958407426388355+0j)</t>
+  </si>
+  <si>
+    <t>(0.09148167944086735+0j)</t>
+  </si>
+  <si>
+    <t>(0.3343874566891176+0j)</t>
+  </si>
+  <si>
+    <t>(0.34978492830470476+0j)</t>
+  </si>
+  <si>
+    <t>(0.39033725636622896+0j)</t>
+  </si>
+  <si>
+    <t>(0.021583192843890278+0j)</t>
+  </si>
+  <si>
+    <t>(-0.010605004042816266+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05566725055468037+0j)</t>
+  </si>
+  <si>
+    <t>(0.02217147219381435+0j)</t>
+  </si>
+  <si>
+    <t>(0.14316638568778056+0j)</t>
+  </si>
+  <si>
+    <t>(0.07878999191436747+0j)</t>
+  </si>
+  <si>
+    <t>(-0.01133450110936074+0j)</t>
+  </si>
+  <si>
+    <t>(0.1443429443876287+0j)</t>
+  </si>
+  <si>
+    <t>(0.013383418357102966+0j)</t>
+  </si>
+  <si>
+    <t>(0.2647495785316709+0j)</t>
+  </si>
+  <si>
+    <t>(0.16818498787155126+0j)</t>
+  </si>
+  <si>
+    <t>(0.03299824833595891+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05672734226024662+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07212697110489372+0j)</t>
+  </si>
+  <si>
+    <t>(0.15277406266015178+0j)</t>
+  </si>
+  <si>
+    <t>(0.06156266702823188+0j)</t>
+  </si>
+  <si>
+    <t>(0.26651441658144304+0j)</t>
+  </si>
+  <si>
+    <t>(0.2795060332570948+0j)</t>
+  </si>
+  <si>
+    <t>(0.3137220600590058+0j)</t>
+  </si>
+  <si>
+    <t>(0.05117789114280394+0j)</t>
+  </si>
+  <si>
+    <t>(0.3863327713755611+0j)</t>
+  </si>
+  <si>
+    <t>(0.2575799838287349+0j)</t>
+  </si>
+  <si>
+    <t>(0.07733099778127853+0j)</t>
+  </si>
+  <si>
+    <t>(-0.042303123013662174+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06283596147319162+0j)</t>
+  </si>
+  <si>
+    <t>(0.23703208354686897+0j)</t>
+  </si>
+  <si>
+    <t>(0.1154168893709758+0j)</t>
+  </si>
+  <si>
+    <t>(0.38868588877525745+0j)</t>
+  </si>
+  <si>
+    <t>(0.4060080443427929+0j)</t>
+  </si>
+  <si>
+    <t>(0.4516294134120077+0j)</t>
+  </si>
+  <si>
+    <t>(0.025981575952336633+0j)</t>
+  </si>
+  <si>
+    <t>(0.3052773094796343+0j)</t>
+  </si>
+  <si>
+    <t>(0.1979833198572791+0j)</t>
+  </si>
+  <si>
+    <t>(0.04777583148439876+0j)</t>
+  </si>
+  <si>
+    <t>(-0.051919269178051806+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06902996789432635+0j)</t>
+  </si>
+  <si>
+    <t>(0.18086006962239085+0j)</t>
+  </si>
+  <si>
+    <t>(0.07951407447581316+0j)</t>
+  </si>
+  <si>
+    <t>(0.30723824064604777+0j)</t>
+  </si>
+  <si>
+    <t>(0.3216733702856608+0j)</t>
+  </si>
+  <si>
+    <t>(0.3596911778433397+0j)</t>
+  </si>
+  <si>
+    <t>(0.06797543460311548+0j)</t>
+  </si>
+  <si>
+    <t>(0.4403697459728457+0j)</t>
+  </si>
+  <si>
+    <t>(0.29731109314303883+0j)</t>
+  </si>
+  <si>
+    <t>(0.09703444197919833+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03589235890406908+0j)</t>
+  </si>
+  <si>
+    <t>(-0.058706623859101796+0j)</t>
+  </si>
+  <si>
+    <t>(0.2744800928298544+0j)</t>
+  </si>
+  <si>
+    <t>(0.13935209930108416+0j)</t>
+  </si>
+  <si>
+    <t>(0.44298432086139705+0j)</t>
+  </si>
+  <si>
+    <t>(0.4622311603808811+0j)</t>
+  </si>
+  <si>
+    <t>(0.5129215704577862+0j)</t>
   </si>
 </sst>
 </file>
@@ -1377,19 +1347,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="D3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="F3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1397,19 +1367,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1417,19 +1387,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1437,19 +1407,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1457,19 +1427,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1477,19 +1447,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1497,19 +1467,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1517,19 +1487,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1537,19 +1507,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1557,19 +1527,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="D12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="F12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1610,16 +1580,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="D2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="E2" t="s">
-        <v>272</v>
+        <v>262</v>
       </c>
       <c r="F2" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1627,19 +1597,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="D3" t="s">
-        <v>266</v>
+        <v>258</v>
       </c>
       <c r="E3" t="s">
-        <v>273</v>
+        <v>263</v>
       </c>
       <c r="F3" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1647,19 +1617,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>87</v>
+        <v>255</v>
       </c>
       <c r="D4" t="s">
-        <v>175</v>
+        <v>259</v>
       </c>
       <c r="E4" t="s">
-        <v>274</v>
+        <v>264</v>
       </c>
       <c r="F4" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1667,19 +1637,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>88</v>
+        <v>256</v>
       </c>
       <c r="D5" t="s">
-        <v>176</v>
+        <v>260</v>
       </c>
       <c r="E5" t="s">
-        <v>275</v>
+        <v>265</v>
       </c>
       <c r="F5" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1687,19 +1657,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>261</v>
+        <v>86</v>
       </c>
       <c r="D6" t="s">
-        <v>267</v>
+        <v>172</v>
       </c>
       <c r="E6" t="s">
-        <v>276</v>
+        <v>266</v>
       </c>
       <c r="F6" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1707,19 +1677,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>262</v>
+        <v>87</v>
       </c>
       <c r="D7" t="s">
-        <v>268</v>
+        <v>173</v>
       </c>
       <c r="E7" t="s">
-        <v>277</v>
+        <v>267</v>
       </c>
       <c r="F7" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1727,19 +1697,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="D8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="E8" t="s">
-        <v>278</v>
+        <v>268</v>
       </c>
       <c r="F8" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1747,19 +1717,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>263</v>
+        <v>89</v>
       </c>
       <c r="D9" t="s">
+        <v>175</v>
+      </c>
+      <c r="E9" t="s">
         <v>269</v>
       </c>
-      <c r="E9" t="s">
-        <v>279</v>
-      </c>
       <c r="F9" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1767,19 +1737,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>264</v>
+        <v>257</v>
       </c>
       <c r="D10" t="s">
+        <v>261</v>
+      </c>
+      <c r="E10" t="s">
         <v>270</v>
       </c>
-      <c r="E10" t="s">
-        <v>280</v>
-      </c>
       <c r="F10" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1787,19 +1757,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="D11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="E11" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="F11" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1807,19 +1777,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>265</v>
+        <v>92</v>
       </c>
       <c r="D12" t="s">
-        <v>271</v>
+        <v>178</v>
       </c>
       <c r="E12" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="F12" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
     </row>
   </sheetData>
@@ -1860,16 +1830,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="E2" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="F2" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1877,19 +1847,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="D3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="E3" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="F3" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1897,19 +1867,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="D4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="E4" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="F4" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1917,19 +1887,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="E5" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="F5" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1937,19 +1907,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="D6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="E6" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="F6" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1957,19 +1927,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="E7" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="F7" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1977,19 +1947,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="D8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
       <c r="E8" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="F8" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1997,19 +1967,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
       <c r="E9" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="F9" t="s">
-        <v>312</v>
+        <v>302</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2017,19 +1987,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="D10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
       <c r="E10" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="F10" t="s">
-        <v>313</v>
+        <v>303</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2037,19 +2007,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
       <c r="E11" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="F11" t="s">
-        <v>314</v>
+        <v>304</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2057,19 +2027,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="D12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
       <c r="E12" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="F12" t="s">
-        <v>315</v>
+        <v>305</v>
       </c>
     </row>
   </sheetData>
@@ -2110,16 +2080,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="E2" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="F2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2127,19 +2097,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="E3" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="F3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2147,19 +2117,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="E4" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="F4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2167,19 +2137,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="D5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="E5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="F5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2187,19 +2157,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="D6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="F6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2207,19 +2177,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="D7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="E7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="F7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2227,19 +2197,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="D8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="E8" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="F8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2247,19 +2217,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="D9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="F9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2267,19 +2237,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>11</v>
+        <v>9</v>
       </c>
       <c r="D10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E10" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="F10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2287,19 +2257,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="D11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E11" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="F11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2307,19 +2277,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="D12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E12" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
   </sheetData>
@@ -2360,16 +2330,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="D2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="E2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="F2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2377,19 +2347,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="E3" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
       <c r="F3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2397,19 +2367,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="E4" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="F4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2417,19 +2387,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="E5" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="F5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2437,19 +2407,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="D6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" t="s">
-        <v>51</v>
+        <v>49</v>
       </c>
       <c r="F6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2457,19 +2427,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="E7" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="F7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2477,19 +2447,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="D8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="E8" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
       <c r="F8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2497,19 +2467,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="D9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="E9" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="F9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2517,19 +2487,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="E10" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
       <c r="F10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2537,19 +2507,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="D11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="E11" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="F11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2557,19 +2527,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="D12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="E12" t="s">
-        <v>57</v>
+        <v>55</v>
       </c>
       <c r="F12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
     </row>
   </sheetData>
@@ -2610,16 +2580,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>69</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
         <v>74</v>
       </c>
       <c r="E2" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2627,19 +2597,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>70</v>
+        <v>67</v>
       </c>
       <c r="D3" t="s">
         <v>75</v>
       </c>
       <c r="E3" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
       <c r="F3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2647,19 +2617,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>27</v>
+        <v>68</v>
       </c>
       <c r="D4" t="s">
         <v>76</v>
       </c>
       <c r="E4" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="F4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2667,19 +2637,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="D5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2687,19 +2657,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
       <c r="F6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2707,19 +2677,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="E7" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="F7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2727,19 +2697,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="D8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="E8" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2747,19 +2717,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>32</v>
+        <v>70</v>
       </c>
       <c r="D9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="E9" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
       <c r="F9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2767,19 +2737,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="D10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="E10" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="F10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2787,19 +2757,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>34</v>
+        <v>72</v>
       </c>
       <c r="D11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="E11" t="s">
-        <v>94</v>
+        <v>91</v>
       </c>
       <c r="F11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2807,19 +2777,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
         <v>73</v>
       </c>
       <c r="D12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="E12" t="s">
-        <v>95</v>
+        <v>92</v>
       </c>
       <c r="F12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
     </row>
   </sheetData>
@@ -2860,16 +2830,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="D2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2877,19 +2847,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="D3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="F3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2897,19 +2867,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="D4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="F4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2917,19 +2887,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="D5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="F5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2937,19 +2907,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>111</v>
+        <v>97</v>
       </c>
       <c r="F6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2957,19 +2927,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="D7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>112</v>
+        <v>98</v>
       </c>
       <c r="F7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2977,19 +2947,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="D8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>113</v>
+        <v>108</v>
       </c>
       <c r="F8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2997,19 +2967,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="D9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>114</v>
+        <v>109</v>
       </c>
       <c r="F9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3017,19 +2987,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="D10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>115</v>
+        <v>110</v>
       </c>
       <c r="F10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3037,19 +3007,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="D11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>116</v>
+        <v>111</v>
       </c>
       <c r="F11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3057,19 +3027,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="D12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>117</v>
+        <v>112</v>
       </c>
       <c r="F12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
     </row>
   </sheetData>
@@ -3110,16 +3080,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>129</v>
+        <v>124</v>
       </c>
       <c r="D2" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="E2" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3127,19 +3097,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>130</v>
+        <v>125</v>
       </c>
       <c r="D3" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E3" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3147,19 +3117,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>131</v>
+        <v>126</v>
       </c>
       <c r="D4" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="E4" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3167,19 +3137,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>132</v>
+        <v>127</v>
       </c>
       <c r="D5" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="E5" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="F5" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3187,19 +3157,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>133</v>
+        <v>128</v>
       </c>
       <c r="D6" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="E6" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="F6" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3207,19 +3177,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>134</v>
+        <v>129</v>
       </c>
       <c r="D7" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="E7" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="F7" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3227,19 +3197,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>135</v>
+        <v>130</v>
       </c>
       <c r="D8" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="E8" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="F8" t="s">
-        <v>168</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3247,19 +3217,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="D9" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="E9" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="F9" t="s">
-        <v>169</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3267,19 +3237,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D10" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="E10" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="F10" t="s">
-        <v>170</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3287,19 +3257,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="D11" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="E11" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="F11" t="s">
-        <v>171</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3307,19 +3277,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="D12" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="E12" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="F12" t="s">
-        <v>172</v>
+        <v>167</v>
       </c>
     </row>
   </sheetData>
@@ -3363,13 +3333,13 @@
         <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>96</v>
+        <v>93</v>
       </c>
       <c r="E2" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="F2" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3377,19 +3347,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
         <v>75</v>
       </c>
       <c r="D3" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
       <c r="E3" t="s">
-        <v>174</v>
+        <v>169</v>
       </c>
       <c r="F3" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3397,19 +3367,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
         <v>76</v>
       </c>
       <c r="D4" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="E4" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="F4" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3417,19 +3387,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>77</v>
+        <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>99</v>
+        <v>96</v>
       </c>
       <c r="E5" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="F5" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3437,19 +3407,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>78</v>
+        <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>100</v>
+        <v>97</v>
       </c>
       <c r="E6" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="F6" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3457,19 +3427,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>79</v>
+        <v>50</v>
       </c>
       <c r="D7" t="s">
-        <v>101</v>
+        <v>98</v>
       </c>
       <c r="E7" t="s">
-        <v>178</v>
+        <v>173</v>
       </c>
       <c r="F7" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3477,19 +3447,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>80</v>
+        <v>77</v>
       </c>
       <c r="D8" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="E8" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="F8" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3497,19 +3467,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>81</v>
+        <v>78</v>
       </c>
       <c r="D9" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="E9" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="F9" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3517,19 +3487,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>82</v>
+        <v>79</v>
       </c>
       <c r="D10" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="E10" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="F10" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3537,19 +3507,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>83</v>
+        <v>80</v>
       </c>
       <c r="D11" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="E11" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="F11" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3557,19 +3527,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>84</v>
+        <v>81</v>
       </c>
       <c r="D12" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="E12" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="F12" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
   </sheetData>
@@ -3610,16 +3580,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>195</v>
+        <v>190</v>
       </c>
       <c r="D2" t="s">
-        <v>206</v>
+        <v>201</v>
       </c>
       <c r="E2" t="s">
-        <v>217</v>
+        <v>212</v>
       </c>
       <c r="F2" t="s">
-        <v>228</v>
+        <v>223</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3627,19 +3597,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>196</v>
+        <v>191</v>
       </c>
       <c r="D3" t="s">
-        <v>207</v>
+        <v>202</v>
       </c>
       <c r="E3" t="s">
-        <v>218</v>
+        <v>213</v>
       </c>
       <c r="F3" t="s">
-        <v>229</v>
+        <v>224</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3647,19 +3617,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>197</v>
+        <v>192</v>
       </c>
       <c r="D4" t="s">
-        <v>208</v>
+        <v>203</v>
       </c>
       <c r="E4" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="F4" t="s">
-        <v>230</v>
+        <v>225</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3667,19 +3637,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>198</v>
+        <v>193</v>
       </c>
       <c r="D5" t="s">
-        <v>209</v>
+        <v>204</v>
       </c>
       <c r="E5" t="s">
-        <v>220</v>
+        <v>215</v>
       </c>
       <c r="F5" t="s">
-        <v>231</v>
+        <v>226</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3687,19 +3657,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>199</v>
+        <v>194</v>
       </c>
       <c r="D6" t="s">
-        <v>210</v>
+        <v>205</v>
       </c>
       <c r="E6" t="s">
-        <v>221</v>
+        <v>216</v>
       </c>
       <c r="F6" t="s">
-        <v>232</v>
+        <v>227</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3707,19 +3677,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>200</v>
+        <v>195</v>
       </c>
       <c r="D7" t="s">
-        <v>211</v>
+        <v>206</v>
       </c>
       <c r="E7" t="s">
-        <v>222</v>
+        <v>217</v>
       </c>
       <c r="F7" t="s">
-        <v>233</v>
+        <v>228</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3727,19 +3697,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>201</v>
+        <v>196</v>
       </c>
       <c r="D8" t="s">
-        <v>212</v>
+        <v>207</v>
       </c>
       <c r="E8" t="s">
-        <v>223</v>
+        <v>218</v>
       </c>
       <c r="F8" t="s">
-        <v>234</v>
+        <v>229</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3747,19 +3717,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>202</v>
+        <v>197</v>
       </c>
       <c r="D9" t="s">
-        <v>213</v>
+        <v>208</v>
       </c>
       <c r="E9" t="s">
-        <v>224</v>
+        <v>219</v>
       </c>
       <c r="F9" t="s">
-        <v>235</v>
+        <v>230</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3767,19 +3737,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>203</v>
+        <v>198</v>
       </c>
       <c r="D10" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="E10" t="s">
-        <v>225</v>
+        <v>220</v>
       </c>
       <c r="F10" t="s">
-        <v>236</v>
+        <v>231</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3787,19 +3757,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>204</v>
+        <v>199</v>
       </c>
       <c r="D11" t="s">
-        <v>215</v>
+        <v>210</v>
       </c>
       <c r="E11" t="s">
-        <v>226</v>
+        <v>221</v>
       </c>
       <c r="F11" t="s">
-        <v>237</v>
+        <v>232</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3807,19 +3777,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>205</v>
+        <v>200</v>
       </c>
       <c r="D12" t="s">
-        <v>216</v>
+        <v>211</v>
       </c>
       <c r="E12" t="s">
-        <v>227</v>
+        <v>222</v>
       </c>
       <c r="F12" t="s">
-        <v>238</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -3860,16 +3830,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>118</v>
+        <v>113</v>
       </c>
       <c r="E2" t="s">
-        <v>239</v>
+        <v>234</v>
       </c>
       <c r="F2" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3877,19 +3847,19 @@
         <v>1</v>
       </c>
       <c r="B3" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>119</v>
+        <v>114</v>
       </c>
       <c r="E3" t="s">
-        <v>240</v>
+        <v>235</v>
       </c>
       <c r="F3" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3897,19 +3867,19 @@
         <v>2</v>
       </c>
       <c r="B4" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>120</v>
+        <v>115</v>
       </c>
       <c r="E4" t="s">
-        <v>241</v>
+        <v>236</v>
       </c>
       <c r="F4" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3917,19 +3887,19 @@
         <v>3</v>
       </c>
       <c r="B5" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>121</v>
+        <v>116</v>
       </c>
       <c r="E5" t="s">
-        <v>242</v>
+        <v>237</v>
       </c>
       <c r="F5" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3937,19 +3907,19 @@
         <v>4</v>
       </c>
       <c r="B6" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>122</v>
+        <v>117</v>
       </c>
       <c r="E6" t="s">
-        <v>243</v>
+        <v>238</v>
       </c>
       <c r="F6" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3957,19 +3927,19 @@
         <v>5</v>
       </c>
       <c r="B7" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>123</v>
+        <v>118</v>
       </c>
       <c r="E7" t="s">
-        <v>244</v>
+        <v>184</v>
       </c>
       <c r="F7" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3977,19 +3947,19 @@
         <v>6</v>
       </c>
       <c r="B8" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>124</v>
+        <v>119</v>
       </c>
       <c r="E8" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="F8" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3997,19 +3967,19 @@
         <v>7</v>
       </c>
       <c r="B9" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>125</v>
+        <v>120</v>
       </c>
       <c r="E9" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="F9" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -4017,19 +3987,19 @@
         <v>8</v>
       </c>
       <c r="B10" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>126</v>
+        <v>121</v>
       </c>
       <c r="E10" t="s">
-        <v>192</v>
+        <v>241</v>
       </c>
       <c r="F10" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -4037,19 +4007,19 @@
         <v>9</v>
       </c>
       <c r="B11" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>127</v>
+        <v>122</v>
       </c>
       <c r="E11" t="s">
-        <v>247</v>
+        <v>242</v>
       </c>
       <c r="F11" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -4057,19 +4027,19 @@
         <v>10</v>
       </c>
       <c r="B12" t="s">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>128</v>
+        <v>123</v>
       </c>
       <c r="E12" t="s">
-        <v>248</v>
+        <v>189</v>
       </c>
       <c r="F12" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
     </row>
   </sheetData>

--- a/Initial presentation/Codi/PGD/Map_S.xlsx
+++ b/Initial presentation/Codi/PGD/Map_S.xlsx
@@ -24,924 +24,915 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="306">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="605" uniqueCount="303">
   <si>
     <t>(-0.1+0j)</t>
   </si>
   <si>
-    <t>(-0.09580061413492212+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08649075635067886+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09006722267142403+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09507413895052005+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09839730897260174+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09896766559647754+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09063799767925365+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0940161975174729+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08642539197846508+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08594422099047798+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08467696073855535+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09160122826984424+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07298151270135772+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08013444534284807+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09014827790104009+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09679461794520346+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0979353311929551+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08127599535850728+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0880323950349458+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07285078395693015+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07188844198095595+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0693539214771107+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08740184240476634+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05947226905203658+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07020166801427209+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08522241685156012+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09519192691780519+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09690299678943264+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07191399303776091+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08204859255241868+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05927617593539522+0j)</t>
-  </si>
-  <si>
-    <t>(-0.057832662971433926+0j)</t>
-  </si>
-  <si>
-    <t>(-0.054030882215666036+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08320245653968845+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04596302540271544+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06026889068569613+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08029655580208017+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09358923589040691+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09587066238591019+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06255199071701456+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07606479006989159+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0457015679138603+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04377688396191191+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03870784295422139+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07480368480953267+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01894453810407315+0j)</t>
-  </si>
-  <si>
-    <t>(-0.040403336028544186+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07044483370312025+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09038385383561037+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09380599357886528+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04382798607552183+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06409718510483736+0j)</t>
-  </si>
-  <si>
-    <t>(-0.018552351870790434+0j)</t>
-  </si>
-  <si>
-    <t>(-0.015665325942867847+0j)</t>
-  </si>
-  <si>
-    <t>(-0.008061764431332066+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0664049130793769+0j)</t>
-  </si>
-  <si>
-    <t>(0.008073949194569122+0j)</t>
-  </si>
-  <si>
-    <t>(-0.020537781371392255+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06059311160416034+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08717847178081382+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09174132477182037+0j)</t>
-  </si>
-  <si>
-    <t>(-0.025103981434029116+0j)</t>
-  </si>
-  <si>
-    <t>(-0.052129580139783166+0j)</t>
-  </si>
-  <si>
-    <t>(0.008596864172279409+0j)</t>
-  </si>
-  <si>
-    <t>(0.012446232076176192+0j)</t>
-  </si>
-  <si>
-    <t>(0.022584314091557228+0j)</t>
-  </si>
-  <si>
-    <t>(-0.059472269052036585+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0702016680142721+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07191399303776093+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0820485925524187+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05927617593539523+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05783266297143393+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05403088221566604+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07480368480953269+0j)</t>
-  </si>
-  <si>
-    <t>(-0.018944538104073164+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04040333602854419+0j)</t>
-  </si>
-  <si>
-    <t>(-0.043827986075521845+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06409718510483738+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01855235187079045+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01566532594286786+0j)</t>
-  </si>
-  <si>
-    <t>(-0.00806176443133208+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06220552721429902+0j)</t>
-  </si>
-  <si>
-    <t>(0.021583192843890264+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01060500404281628+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05566725055468038+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08557578075341554+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09070899036829791+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01574197911328276+0j)</t>
-  </si>
-  <si>
-    <t>(-0.046145777657256054+0j)</t>
-  </si>
-  <si>
-    <t>(0.022171472193814337+0j)</t>
-  </si>
-  <si>
-    <t>(0.02650201108569822+0j)</t>
-  </si>
-  <si>
-    <t>(0.03790735335300191+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04960736961906536+0j)</t>
-  </si>
-  <si>
-    <t>(0.06211092379185368+0j)</t>
-  </si>
-  <si>
-    <t>(0.01919332794291162+0j)</t>
-  </si>
-  <si>
-    <t>(-0.040889667406240504+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08076770767122073+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08761198715773054+0j)</t>
-  </si>
-  <si>
-    <t>(0.012344027848956315+0j)</t>
-  </si>
-  <si>
-    <t>(-0.028194370209674746+0j)</t>
-  </si>
-  <si>
-    <t>(0.06289529625841911+0j)</t>
-  </si>
-  <si>
-    <t>(0.06866934811426428+0j)</t>
-  </si>
-  <si>
-    <t>(0.08387647113733585+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04960736961906535+0j)</t>
-  </si>
-  <si>
-    <t>(0.062110923791853706+0j)</t>
-  </si>
-  <si>
-    <t>(0.019193327942911634+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0408896674062405+0j)</t>
-  </si>
-  <si>
-    <t>(0.012344027848956343+0j)</t>
-  </si>
-  <si>
-    <t>(-0.028194370209674732+0j)</t>
-  </si>
-  <si>
-    <t>(0.06289529625841914+0j)</t>
-  </si>
-  <si>
-    <t>(0.06866934811426431+0j)</t>
-  </si>
-  <si>
-    <t>(0.08387647113733587+0j)</t>
-  </si>
-  <si>
-    <t>(-0.032809826158753816+0j)</t>
-  </si>
-  <si>
-    <t>(0.11614789838913825+0j)</t>
-  </si>
-  <si>
-    <t>(0.058924437257215495+0j)</t>
-  </si>
-  <si>
-    <t>(-0.02118622320832067+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07435694356162764+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08348264954364072+0j)</t>
-  </si>
-  <si>
-    <t>(0.049792037131941774+0j)</t>
-  </si>
-  <si>
-    <t>(-0.004259160279566326+0j)</t>
-  </si>
-  <si>
-    <t>(0.11719372834455882+0j)</t>
-  </si>
-  <si>
-    <t>(0.12489246415235239+0j)</t>
-  </si>
-  <si>
-    <t>(0.14516862818311446+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07900307067461057+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03245378175339429+0j)</t>
-  </si>
-  <si>
-    <t>(-0.050336113357120155+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07537069475260022+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09198654486300864+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09483832798238773+0j)</t>
-  </si>
-  <si>
-    <t>(-0.053189988396268206+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07008098758736449+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03212695989232538+0j)</t>
-  </si>
-  <si>
-    <t>(-0.029721104952389873+0j)</t>
-  </si>
-  <si>
-    <t>(-0.023384803692776734+0j)</t>
-  </si>
-  <si>
-    <t>(-0.058006141349221135+0j)</t>
-  </si>
-  <si>
-    <t>(0.03509243649321142+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0006722267142403038+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05074138950520042+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08397308972601727+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08967665596477545+0j)</t>
-  </si>
-  <si>
-    <t>(-0.006379976792536407+0j)</t>
-  </si>
-  <si>
-    <t>(-0.04016197517472896+0j)</t>
-  </si>
-  <si>
-    <t>(0.03574608021534925+0j)</t>
-  </si>
-  <si>
-    <t>(0.04055779009522026+0j)</t>
-  </si>
-  <si>
-    <t>(0.05323039261444654+0j)</t>
-  </si>
-  <si>
-    <t>(-0.037009212023831686+0j)</t>
-  </si>
-  <si>
-    <t>(0.10263865473981715+0j)</t>
-  </si>
-  <si>
-    <t>(0.04899165992863955+0j)</t>
-  </si>
-  <si>
-    <t>(-0.026112084257800622+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07595963458902591+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08451498394716317+0j)</t>
-  </si>
-  <si>
-    <t>(0.04043003481119542+0j)</t>
-  </si>
-  <si>
-    <t>(-0.010242962762093424+0j)</t>
-  </si>
-  <si>
-    <t>(0.1036191203230239+0j)</t>
-  </si>
-  <si>
-    <t>(0.1108366851428304+0j)</t>
-  </si>
-  <si>
-    <t>(0.12984558892166984+0j)</t>
-  </si>
-  <si>
-    <t>(-0.016012282698442265+0j)</t>
-  </si>
-  <si>
-    <t>(0.17018487298642285+0j)</t>
-  </si>
-  <si>
-    <t>(0.0986555465715194+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0014827790104008365+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06794617945203454+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0793533119295509+0j)</t>
-  </si>
-  <si>
-    <t>(0.08724004641492719+0j)</t>
-  </si>
-  <si>
-    <t>(0.01967604965054208+0j)</t>
-  </si>
-  <si>
-    <t>(0.1714921604306985+0j)</t>
-  </si>
-  <si>
-    <t>(0.18111558019044052+0j)</t>
-  </si>
-  <si>
-    <t>(0.20646078522889308+0j)</t>
-  </si>
-  <si>
-    <t>(-0.024411054428598034+0j)</t>
-  </si>
-  <si>
-    <t>(0.14316638568778053+0j)</t>
-  </si>
-  <si>
-    <t>(0.07878999191436745+0j)</t>
-  </si>
-  <si>
-    <t>(-0.011334501109360753+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07115156150683109+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08141798073659581+0j)</t>
-  </si>
-  <si>
-    <t>(0.06851604177343448+0j)</t>
-  </si>
-  <si>
-    <t>(0.007708444685487897+0j)</t>
-  </si>
-  <si>
-    <t>(0.14434294438762868+0j)</t>
-  </si>
-  <si>
-    <t>(0.15300402217139644+0j)</t>
-  </si>
-  <si>
-    <t>(0.17581470670600383+0j)</t>
-  </si>
-  <si>
-    <t>(0.0007852607618692858+0j)</t>
-  </si>
-  <si>
-    <t>(0.22422184758370736+0j)</t>
-  </si>
-  <si>
-    <t>(0.13838665588582325+0j)</t>
-  </si>
-  <si>
-    <t>(0.018220665187518997+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06153541534244145+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07522397431546107+0j)</t>
-  </si>
-  <si>
-    <t>(0.12468805569791264+0j)</t>
-  </si>
-  <si>
-    <t>(0.04361125958065051+0j)</t>
-  </si>
-  <si>
-    <t>(0.22579059251683822+0j)</t>
-  </si>
-  <si>
-    <t>(0.23733869622852857+0j)</t>
-  </si>
-  <si>
-    <t>(0.2677529422746717+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0706042989444548+0j)</t>
-  </si>
-  <si>
-    <t>(-0.005435294454752021+0j)</t>
-  </si>
-  <si>
-    <t>(-0.030470558699968217+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06551897265364029+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08878116280821209+0j)</t>
-  </si>
-  <si>
-    <t>(-0.09277365917534282+0j)</t>
-  </si>
-  <si>
-    <t>(-0.034465983754775484+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05811338262231027+0j)</t>
-  </si>
-  <si>
-    <t>(-0.00497774384925552+0j)</t>
-  </si>
-  <si>
-    <t>(-0.0016095469333458345+0j)</t>
-  </si>
-  <si>
-    <t>(0.007261274830112588+0j)</t>
-  </si>
-  <si>
-    <t>(-0.041208597888909584+0j)</t>
-  </si>
-  <si>
-    <t>(0.08912941109049596+0j)</t>
-  </si>
-  <si>
-    <t>(0.03905888260006357+0j)</t>
-  </si>
-  <si>
-    <t>(-0.031037945307280587+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07756232561642418+0j)</t>
-  </si>
-  <si>
-    <t>(-0.08554731835068563+0j)</t>
-  </si>
-  <si>
-    <t>(0.031068032490449038+0j)</t>
-  </si>
-  <si>
-    <t>(-0.016226765244620536+0j)</t>
-  </si>
-  <si>
-    <t>(0.09004451230148897+0j)</t>
-  </si>
-  <si>
-    <t>(0.09678090613330834+0j)</t>
-  </si>
-  <si>
-    <t>(0.11452254966022518+0j)</t>
-  </si>
-  <si>
-    <t>(-0.011812896833364367+0j)</t>
-  </si>
-  <si>
-    <t>(0.183694116635744+0j)</t>
-  </si>
-  <si>
-    <t>(0.10858832390009537+0j)</t>
-  </si>
-  <si>
-    <t>(0.003443082039079143+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06634348842463626+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07832097752602844+0j)</t>
-  </si>
-  <si>
-    <t>(0.0966020487356736+0j)</t>
-  </si>
-  <si>
-    <t>(0.025659852133069205+0j)</t>
-  </si>
-  <si>
-    <t>(0.1850667684522335+0j)</t>
-  </si>
-  <si>
-    <t>(0.19517135919996256+0j)</t>
-  </si>
-  <si>
-    <t>(0.22178382449033782+0j)</t>
-  </si>
-  <si>
-    <t>(0.017582804222180837+0j)</t>
-  </si>
-  <si>
-    <t>(0.27825882218099196+0j)</t>
-  </si>
-  <si>
-    <t>(0.17811776520012715+0j)</t>
-  </si>
-  <si>
-    <t>(0.03792410938543883+0j)</t>
-  </si>
-  <si>
-    <t>(-0.055124651232848355+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07109463670137126+0j)</t>
-  </si>
-  <si>
-    <t>(0.16213606498089808+0j)</t>
-  </si>
-  <si>
-    <t>(0.06754646951075893+0j)</t>
-  </si>
-  <si>
-    <t>(0.2800890246029779+0j)</t>
-  </si>
-  <si>
-    <t>(0.2935618122666167+0j)</t>
-  </si>
-  <si>
-    <t>(0.32904509932045034+0j)</t>
-  </si>
-  <si>
-    <t>(0.0007852607618692997+0j)</t>
-  </si>
-  <si>
-    <t>(0.22422184758370742+0j)</t>
-  </si>
-  <si>
-    <t>(0.13838665588582327+0j)</t>
-  </si>
-  <si>
-    <t>(0.01822066518751901+0j)</t>
-  </si>
-  <si>
-    <t>(-0.061535415342441446+0j)</t>
-  </si>
-  <si>
-    <t>(0.12468805569791269+0j)</t>
-  </si>
-  <si>
-    <t>(0.04361125958065054+0j)</t>
-  </si>
-  <si>
-    <t>(0.22579059251683828+0j)</t>
-  </si>
-  <si>
-    <t>(0.23733869622852863+0j)</t>
-  </si>
-  <si>
-    <t>(0.034380347682492374+0j)</t>
-  </si>
-  <si>
-    <t>(0.3322957967782765+0j)</t>
-  </si>
-  <si>
-    <t>(0.217848874514431+0j)</t>
-  </si>
-  <si>
-    <t>(0.057627553583358665+0j)</t>
-  </si>
-  <si>
-    <t>(-0.048713887123255264+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06696529908728144+0j)</t>
-  </si>
-  <si>
-    <t>(0.19958407426388355+0j)</t>
-  </si>
-  <si>
-    <t>(0.09148167944086735+0j)</t>
-  </si>
-  <si>
-    <t>(0.3343874566891176+0j)</t>
-  </si>
-  <si>
-    <t>(0.34978492830470476+0j)</t>
-  </si>
-  <si>
-    <t>(0.39033725636622896+0j)</t>
-  </si>
-  <si>
-    <t>(0.021583192843890278+0j)</t>
-  </si>
-  <si>
-    <t>(-0.010605004042816266+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05566725055468037+0j)</t>
-  </si>
-  <si>
-    <t>(0.02217147219381435+0j)</t>
-  </si>
-  <si>
-    <t>(0.14316638568778056+0j)</t>
-  </si>
-  <si>
-    <t>(0.07878999191436747+0j)</t>
-  </si>
-  <si>
-    <t>(-0.01133450110936074+0j)</t>
-  </si>
-  <si>
-    <t>(0.1443429443876287+0j)</t>
-  </si>
-  <si>
-    <t>(0.013383418357102966+0j)</t>
-  </si>
-  <si>
-    <t>(0.2647495785316709+0j)</t>
-  </si>
-  <si>
-    <t>(0.16818498787155126+0j)</t>
-  </si>
-  <si>
-    <t>(0.03299824833595891+0j)</t>
-  </si>
-  <si>
-    <t>(-0.05672734226024662+0j)</t>
-  </si>
-  <si>
-    <t>(-0.07212697110489372+0j)</t>
-  </si>
-  <si>
-    <t>(0.15277406266015178+0j)</t>
-  </si>
-  <si>
-    <t>(0.06156266702823188+0j)</t>
-  </si>
-  <si>
-    <t>(0.26651441658144304+0j)</t>
-  </si>
-  <si>
-    <t>(0.2795060332570948+0j)</t>
-  </si>
-  <si>
-    <t>(0.3137220600590058+0j)</t>
-  </si>
-  <si>
-    <t>(0.05117789114280394+0j)</t>
-  </si>
-  <si>
-    <t>(0.3863327713755611+0j)</t>
-  </si>
-  <si>
-    <t>(0.2575799838287349+0j)</t>
-  </si>
-  <si>
-    <t>(0.07733099778127853+0j)</t>
-  </si>
-  <si>
-    <t>(-0.042303123013662174+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06283596147319162+0j)</t>
-  </si>
-  <si>
-    <t>(0.23703208354686897+0j)</t>
-  </si>
-  <si>
-    <t>(0.1154168893709758+0j)</t>
-  </si>
-  <si>
-    <t>(0.38868588877525745+0j)</t>
-  </si>
-  <si>
-    <t>(0.4060080443427929+0j)</t>
-  </si>
-  <si>
-    <t>(0.4516294134120077+0j)</t>
-  </si>
-  <si>
-    <t>(0.025981575952336633+0j)</t>
-  </si>
-  <si>
-    <t>(0.3052773094796343+0j)</t>
-  </si>
-  <si>
-    <t>(0.1979833198572791+0j)</t>
-  </si>
-  <si>
-    <t>(0.04777583148439876+0j)</t>
-  </si>
-  <si>
-    <t>(-0.051919269178051806+0j)</t>
-  </si>
-  <si>
-    <t>(-0.06902996789432635+0j)</t>
-  </si>
-  <si>
-    <t>(0.18086006962239085+0j)</t>
-  </si>
-  <si>
-    <t>(0.07951407447581316+0j)</t>
-  </si>
-  <si>
-    <t>(0.30723824064604777+0j)</t>
-  </si>
-  <si>
-    <t>(0.3216733702856608+0j)</t>
-  </si>
-  <si>
-    <t>(0.3596911778433397+0j)</t>
-  </si>
-  <si>
-    <t>(0.06797543460311548+0j)</t>
-  </si>
-  <si>
-    <t>(0.4403697459728457+0j)</t>
-  </si>
-  <si>
-    <t>(0.29731109314303883+0j)</t>
-  </si>
-  <si>
-    <t>(0.09703444197919833+0j)</t>
-  </si>
-  <si>
-    <t>(-0.03589235890406908+0j)</t>
-  </si>
-  <si>
-    <t>(-0.058706623859101796+0j)</t>
-  </si>
-  <si>
-    <t>(0.2744800928298544+0j)</t>
-  </si>
-  <si>
-    <t>(0.13935209930108416+0j)</t>
-  </si>
-  <si>
-    <t>(0.44298432086139705+0j)</t>
-  </si>
-  <si>
-    <t>(0.4622311603808811+0j)</t>
-  </si>
-  <si>
-    <t>(0.5129215704577862+0j)</t>
+    <t>(-0.09232876504703794+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09217830204635+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08887694476010408+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09418408739184733+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0967648563353946+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08908995002650008+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08242154220892595+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08964322245458878+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08597924584952718+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09560261415438609+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0861891291373823+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08465753009407587+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08435660409269999+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07775388952020815+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08836817478369466+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0935297126707892+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07817990005300014+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06484308441785187+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07928644490917755+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07195849169905437+0j)</t>
+  </si>
+  <si>
+    <t>(-0.09120522830877216+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07237825827476461+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07698629514111381+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07653490613904998+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06663083428031222+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08255226217554197+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0902945690061838+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0672698500795002+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0472646266267778+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06892966736376632+0j)</t>
+  </si>
+  <si>
+    <t>(-0.057937737548581544+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08680784246315823+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05856738741214692+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06931506018815174+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06871320818539997+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05550777904041629+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0767363495673893+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08705942534157839+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05635980010600028+0j)</t>
+  </si>
+  <si>
+    <t>(-0.02968616883570374+0j)</t>
+  </si>
+  <si>
+    <t>(-0.058572889818355095+0j)</t>
+  </si>
+  <si>
+    <t>(-0.043916983398108726+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08241045661754431+0j)</t>
+  </si>
+  <si>
+    <t>(-0.044756516549529224+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05397259028222761+0j)</t>
+  </si>
+  <si>
+    <t>(-0.053069812278099954+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03326166856062443+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06510452435108394+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08058913801236758+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0345397001590004+0j)</t>
+  </si>
+  <si>
+    <t>(0.005470746746444405+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03785933472753264+0j)</t>
+  </si>
+  <si>
+    <t>(-0.015875475097163083+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07361568492631647+0j)</t>
+  </si>
+  <si>
+    <t>(-0.017134774824293833+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03863012037630348+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03742641637079995+0j)</t>
+  </si>
+  <si>
+    <t>(-0.011015558080832571+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05347269913477859+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07411885068315677+0j)</t>
+  </si>
+  <si>
+    <t>(-0.012719600212000554+0j)</t>
+  </si>
+  <si>
+    <t>(0.04062766232859252+0j)</t>
+  </si>
+  <si>
+    <t>(-0.017145779636710184+0j)</t>
+  </si>
+  <si>
+    <t>(0.012166033203782553+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06482091323508862+0j)</t>
+  </si>
+  <si>
+    <t>(0.010486966900941558+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04726462662677782+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05793773754858155+0j)</t>
+  </si>
+  <si>
+    <t>(-0.058567387412146926+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05397259028222762+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05306981227809996+0j)</t>
+  </si>
+  <si>
+    <t>(-0.033261668560624444+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03453970015900042+0j)</t>
+  </si>
+  <si>
+    <t>(0.005470746746444363+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03785933472753265+0j)</t>
+  </si>
+  <si>
+    <t>(-0.015875475097163097+0j)</t>
+  </si>
+  <si>
+    <t>(-0.017134774824293847+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03095888542334141+0j)</t>
+  </si>
+  <si>
+    <t>(-0.029604718417149928+0j)</t>
+  </si>
+  <si>
+    <t>(0.00010749715906335777+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04765678652662591+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07088370701855137+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0018095502385006151+0j)</t>
+  </si>
+  <si>
+    <t>(0.058206120119666555+0j)</t>
+  </si>
+  <si>
+    <t>(-0.006789002091298957+0j)</t>
+  </si>
+  <si>
+    <t>(0.026186787354255364+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0604235273894747+0j)</t>
+  </si>
+  <si>
+    <t>(0.024297837763559232+0j)</t>
+  </si>
+  <si>
+    <t>(-0.007945180564455229+0j)</t>
+  </si>
+  <si>
+    <t>(-0.006139624556199916+0j)</t>
+  </si>
+  <si>
+    <t>(0.03347666287875112+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03020904870216788+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06117827602473516+0j)</t>
+  </si>
+  <si>
+    <t>(0.030920599681999172+0j)</t>
+  </si>
+  <si>
+    <t>(0.11094149349288873+0j)</t>
+  </si>
+  <si>
+    <t>(0.024281330544934712+0j)</t>
+  </si>
+  <si>
+    <t>(0.06824904980567381+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04723136985263293+0j)</t>
+  </si>
+  <si>
+    <t>(0.06573045035141231+0j)</t>
+  </si>
+  <si>
+    <t>(-0.007945180564455215+0j)</t>
+  </si>
+  <si>
+    <t>(-0.006139624556199902+0j)</t>
+  </si>
+  <si>
+    <t>(0.033476662878751146+0j)</t>
+  </si>
+  <si>
+    <t>(-0.030209048702167868+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06117827602473515+0j)</t>
+  </si>
+  <si>
+    <t>(0.0309205996819992+0j)</t>
+  </si>
+  <si>
+    <t>(0.11094149349288882+0j)</t>
+  </si>
+  <si>
+    <t>(0.024281330544934726+0j)</t>
+  </si>
+  <si>
+    <t>(0.06824904980567384+0j)</t>
+  </si>
+  <si>
+    <t>(-0.047231369852632925+0j)</t>
+  </si>
+  <si>
+    <t>(0.06573045035141234+0j)</t>
+  </si>
+  <si>
+    <t>(0.02273975924739305+0j)</t>
+  </si>
+  <si>
+    <t>(0.025147167258400105+0j)</t>
+  </si>
+  <si>
+    <t>(0.07796888383833486+0j)</t>
+  </si>
+  <si>
+    <t>(-0.006945398269557174+0j)</t>
+  </si>
+  <si>
+    <t>(-0.048237701366313536+0j)</t>
+  </si>
+  <si>
+    <t>(0.0745607995759989+0j)</t>
+  </si>
+  <si>
+    <t>(0.18125532465718505+0j)</t>
+  </si>
+  <si>
+    <t>(0.06570844072657964+0j)</t>
+  </si>
+  <si>
+    <t>(0.12433206640756511+0j)</t>
+  </si>
+  <si>
+    <t>(-0.02964182647017724+0j)</t>
+  </si>
+  <si>
+    <t>(0.12097393380188312+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06164382523518968+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06089151023174996+0j)</t>
+  </si>
+  <si>
+    <t>(-0.044384723800520366+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07092043695923662+0j)</t>
+  </si>
+  <si>
+    <t>(-0.08382428167697298+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04544975013250035+0j)</t>
+  </si>
+  <si>
+    <t>(-0.012107711044629682+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04821611227294387+0j)</t>
+  </si>
+  <si>
+    <t>(-0.029896229247635908+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0780130707719304+0j)</t>
+  </si>
+  <si>
+    <t>(-0.030945645686911535+0j)</t>
+  </si>
+  <si>
+    <t>(-0.023287650470379354+0j)</t>
+  </si>
+  <si>
+    <t>(-0.02178302046349992+0j)</t>
+  </si>
+  <si>
+    <t>(0.011230552398959273+0j)</t>
+  </si>
+  <si>
+    <t>(-0.041840873918473236+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06764856335394596+0j)</t>
+  </si>
+  <si>
+    <t>(0.00910049973499931+0j)</t>
+  </si>
+  <si>
+    <t>(0.07578457791074064+0j)</t>
+  </si>
+  <si>
+    <t>(0.003567775454112271+0j)</t>
+  </si>
+  <si>
+    <t>(0.04020754150472819+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05602614154386078+0j)</t>
+  </si>
+  <si>
+    <t>(0.038108708626176935+0j)</t>
+  </si>
+  <si>
+    <t>(0.01506852429443098+0j)</t>
+  </si>
+  <si>
+    <t>(0.017325469304750124+0j)</t>
+  </si>
+  <si>
+    <t>(0.06684582859843893+0j)</t>
+  </si>
+  <si>
+    <t>(-0.012761310877709833+0j)</t>
+  </si>
+  <si>
+    <t>(-0.051472845030918944+0j)</t>
+  </si>
+  <si>
+    <t>(0.06365074960249897+0j)</t>
+  </si>
+  <si>
+    <t>(0.16367686686611096+0j)</t>
+  </si>
+  <si>
+    <t>(0.05535166318116841+0j)</t>
+  </si>
+  <si>
+    <t>(0.11031131225709231+0j)</t>
+  </si>
+  <si>
+    <t>(-0.034039212315791156+0j)</t>
+  </si>
+  <si>
+    <t>(0.10716306293926542+0j)</t>
+  </si>
+  <si>
+    <t>(0.0534246990592413+0j)</t>
+  </si>
+  <si>
+    <t>(0.05643395907300017+0j)</t>
+  </si>
+  <si>
+    <t>(0.12246110479791855+0j)</t>
+  </si>
+  <si>
+    <t>(0.016318252163053534+0j)</t>
+  </si>
+  <si>
+    <t>(-0.035297126707891924+0j)</t>
+  </si>
+  <si>
+    <t>(0.11820099946999862+0j)</t>
+  </si>
+  <si>
+    <t>(0.2515691558214813+0j)</t>
+  </si>
+  <si>
+    <t>(0.10713555090822455+0j)</t>
+  </si>
+  <si>
+    <t>(0.18041508300945638+0j)</t>
+  </si>
+  <si>
+    <t>(-0.01205228308772155+0j)</t>
+  </si>
+  <si>
+    <t>(0.17621741725235388+0j)</t>
+  </si>
+  <si>
+    <t>(0.03808222915331719+0j)</t>
+  </si>
+  <si>
+    <t>(0.04079056316570015+0j)</t>
+  </si>
+  <si>
+    <t>(0.10021499431812672+0j)</t>
+  </si>
+  <si>
+    <t>(0.004686426946748187+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04176741403710273+0j)</t>
+  </si>
+  <si>
+    <t>(0.09638089952299878+0j)</t>
+  </si>
+  <si>
+    <t>(0.21641224023933311+0j)</t>
+  </si>
+  <si>
+    <t>(0.08642199581740209+0j)</t>
+  </si>
+  <si>
+    <t>(0.15237357470851073+0j)</t>
+  </si>
+  <si>
+    <t>(-0.020847054778949395+0j)</t>
+  </si>
+  <si>
+    <t>(0.14859567552711847+0j)</t>
+  </si>
+  <si>
+    <t>(0.08410963887108955+0j)</t>
+  </si>
+  <si>
+    <t>(0.08772075088760017+0j)</t>
+  </si>
+  <si>
+    <t>(0.16695332575750224+0j)</t>
+  </si>
+  <si>
+    <t>(0.03958190259566424+0j)</t>
+  </si>
+  <si>
+    <t>(-0.02235655204947032+0j)</t>
+  </si>
+  <si>
+    <t>(0.16184119936399835+0j)</t>
+  </si>
+  <si>
+    <t>(0.32188298698577744+0j)</t>
+  </si>
+  <si>
+    <t>(0.14856266108986943+0j)</t>
+  </si>
+  <si>
+    <t>(0.23649809961134763+0j)</t>
+  </si>
+  <si>
+    <t>(0.005537260294734142+0j)</t>
+  </si>
+  <si>
+    <t>(0.23146090070282463+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04630135532926555+0j)</t>
+  </si>
+  <si>
+    <t>(-0.04524811432444995+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0221386133207285+0j)</t>
+  </si>
+  <si>
+    <t>(-0.05928861174293126+0j)</t>
+  </si>
+  <si>
+    <t>(-0.07735399434776218+0j)</t>
+  </si>
+  <si>
+    <t>(-0.023629650185500478+0j)</t>
+  </si>
+  <si>
+    <t>(0.023049204537518436+0j)</t>
+  </si>
+  <si>
+    <t>(-0.027502557182121426+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0018547209466902859+0j)</t>
+  </si>
+  <si>
+    <t>(-0.06921829908070255+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0033239039616761584+0j)</t>
+  </si>
+  <si>
+    <t>(0.00739728934146891+0j)</t>
+  </si>
+  <si>
+    <t>(0.009503771351100102+0j)</t>
+  </si>
+  <si>
+    <t>(0.055722773358543004+0j)</t>
+  </si>
+  <si>
+    <t>(-0.01857722348586252+0j)</t>
+  </si>
+  <si>
+    <t>(-0.054707988695524346+0j)</t>
+  </si>
+  <si>
+    <t>(0.05274069962899905+0j)</t>
+  </si>
+  <si>
+    <t>(0.14609840907503688+0j)</t>
+  </si>
+  <si>
+    <t>(0.044994885635757154+0j)</t>
+  </si>
+  <si>
+    <t>(0.09629055810661943+0j)</t>
+  </si>
+  <si>
+    <t>(-0.03843659816140509+0j)</t>
+  </si>
+  <si>
+    <t>(0.09335219207664769+0j)</t>
+  </si>
+  <si>
+    <t>(0.06109593401220337+0j)</t>
+  </si>
+  <si>
+    <t>(0.06425565702665018+0j)</t>
+  </si>
+  <si>
+    <t>(0.1335841600378145+0j)</t>
+  </si>
+  <si>
+    <t>(0.02213416477120622+0j)</t>
+  </si>
+  <si>
+    <t>(-0.032061983043286515+0j)</t>
+  </si>
+  <si>
+    <t>(0.12911104944349858+0j)</t>
+  </si>
+  <si>
+    <t>(0.26914761361255535+0j)</t>
+  </si>
+  <si>
+    <t>(0.11749232845363575+0j)</t>
+  </si>
+  <si>
+    <t>(0.1944358371599292+0j)</t>
+  </si>
+  <si>
+    <t>(-0.0076548972421076195+0j)</t>
+  </si>
+  <si>
+    <t>(0.19002828811497155+0j)</t>
+  </si>
+  <si>
+    <t>(0.11479457868293783+0j)</t>
+  </si>
+  <si>
+    <t>(0.11900754270220021+0j)</t>
+  </si>
+  <si>
+    <t>(0.211445546717086+0j)</t>
+  </si>
+  <si>
+    <t>(0.06284555302827496+0j)</t>
+  </si>
+  <si>
+    <t>(-0.009415977391048685+0j)</t>
+  </si>
+  <si>
+    <t>(0.2054813992579981+0j)</t>
+  </si>
+  <si>
+    <t>(0.3921968181500738+0j)</t>
+  </si>
+  <si>
+    <t>(0.1899897712715143+0j)</t>
+  </si>
+  <si>
+    <t>(0.2925811162132389+0j)</t>
+  </si>
+  <si>
+    <t>(0.02312680367718982+0j)</t>
+  </si>
+  <si>
+    <t>(0.28670438415329536+0j)</t>
+  </si>
+  <si>
+    <t>(0.08410963887108958+0j)</t>
+  </si>
+  <si>
+    <t>(0.0877207508876002+0j)</t>
+  </si>
+  <si>
+    <t>(0.1669533257575023+0j)</t>
+  </si>
+  <si>
+    <t>(0.03958190259566427+0j)</t>
+  </si>
+  <si>
+    <t>(-0.02235655204947029+0j)</t>
+  </si>
+  <si>
+    <t>(0.1618411993639984+0j)</t>
+  </si>
+  <si>
+    <t>(0.32188298698577766+0j)</t>
+  </si>
+  <si>
+    <t>(0.14856266108986946+0j)</t>
+  </si>
+  <si>
+    <t>(0.23649809961134768+0j)</t>
+  </si>
+  <si>
+    <t>(0.005537260294734156+0j)</t>
+  </si>
+  <si>
+    <t>(0.23146090070282468+0j)</t>
+  </si>
+  <si>
+    <t>(0.1454795184947861+0j)</t>
+  </si>
+  <si>
+    <t>(0.15029433451680022+0j)</t>
+  </si>
+  <si>
+    <t>(0.25593776767666976+0j)</t>
+  </si>
+  <si>
+    <t>(0.08610920346088566+0j)</t>
+  </si>
+  <si>
+    <t>(0.0035245972673729337+0j)</t>
+  </si>
+  <si>
+    <t>(0.2491215991519978+0j)</t>
+  </si>
+  <si>
+    <t>(0.46251064931437014+0j)</t>
+  </si>
+  <si>
+    <t>(0.23141688145315928+0j)</t>
+  </si>
+  <si>
+    <t>(0.3486641328151302+0j)</t>
+  </si>
+  <si>
+    <t>(0.040716347059645525+0j)</t>
+  </si>
+  <si>
+    <t>(0.3419478676037663+0j)</t>
+  </si>
+  <si>
+    <t>(0.05820612011966661+0j)</t>
+  </si>
+  <si>
+    <t>(0.024297837763559246+0j)</t>
+  </si>
+  <si>
+    <t>(-0.041767414037102726+0j)</t>
+  </si>
+  <si>
+    <t>(0.21641224023933323+0j)</t>
+  </si>
+  <si>
+    <t>(0.1485956755271185+0j)</t>
+  </si>
+  <si>
+    <t>(0.10712334372997581+0j)</t>
+  </si>
+  <si>
+    <t>(0.11118584474855026+0j)</t>
+  </si>
+  <si>
+    <t>(0.20032249147719008+0j)</t>
+  </si>
+  <si>
+    <t>(0.05702964042012229+0j)</t>
+  </si>
+  <si>
+    <t>(-0.01265112105565408+0j)</t>
+  </si>
+  <si>
+    <t>(0.19457134928449818+0j)</t>
+  </si>
+  <si>
+    <t>(0.37461836035899987+0j)</t>
+  </si>
+  <si>
+    <t>(0.17963299372610317+0j)</t>
+  </si>
+  <si>
+    <t>(0.27856036206276613+0j)</t>
+  </si>
+  <si>
+    <t>(0.018729417831575917+0j)</t>
+  </si>
+  <si>
+    <t>(0.2728935132906778+0j)</t>
+  </si>
+  <si>
+    <t>(0.17616445830663438+0j)</t>
+  </si>
+  <si>
+    <t>(0.1815811263314003+0j)</t>
+  </si>
+  <si>
+    <t>(0.3004299886362535+0j)</t>
+  </si>
+  <si>
+    <t>(0.10937285389349638+0j)</t>
+  </si>
+  <si>
+    <t>(0.016465171925794553+0j)</t>
+  </si>
+  <si>
+    <t>(0.29276179904599753+0j)</t>
+  </si>
+  <si>
+    <t>(0.5328244804786665+0j)</t>
+  </si>
+  <si>
+    <t>(0.2728439916348042+0j)</t>
+  </si>
+  <si>
+    <t>(0.4047471494170215+0j)</t>
+  </si>
+  <si>
+    <t>(0.058305890442101216+0j)</t>
+  </si>
+  <si>
+    <t>(0.397191351054237+0j)</t>
+  </si>
+  <si>
+    <t>(0.13013704858886196+0j)</t>
+  </si>
+  <si>
+    <t>(0.13465093860950025+0j)</t>
+  </si>
+  <si>
+    <t>(0.23369165719687787+0j)</t>
+  </si>
+  <si>
+    <t>(0.07447737824458034+0j)</t>
+  </si>
+  <si>
+    <t>(-0.002945690061837883+0j)</t>
+  </si>
+  <si>
+    <t>(0.22730149920499795+0j)</t>
+  </si>
+  <si>
+    <t>(0.42735373373222196+0j)</t>
+  </si>
+  <si>
+    <t>(0.21070332636233682+0j)</t>
+  </si>
+  <si>
+    <t>(0.32062262451418466+0j)</t>
+  </si>
+  <si>
+    <t>(0.03192157536841769+0j)</t>
+  </si>
+  <si>
+    <t>(0.3143261258785308+0j)</t>
+  </si>
+  <si>
+    <t>(0.2068493981184826+0j)</t>
+  </si>
+  <si>
+    <t>(0.21286791814600034+0j)</t>
+  </si>
+  <si>
+    <t>(0.3449222095958371+0j)</t>
+  </si>
+  <si>
+    <t>(0.13263650432610707+0j)</t>
+  </si>
+  <si>
+    <t>(0.029405746584216158+0j)</t>
+  </si>
+  <si>
+    <t>(0.3364019989399972+0j)</t>
+  </si>
+  <si>
+    <t>(0.6031383116429626+0j)</t>
+  </si>
+  <si>
+    <t>(0.3142711018164491+0j)</t>
+  </si>
+  <si>
+    <t>(0.4608301660189128+0j)</t>
+  </si>
+  <si>
+    <t>(0.07589543382455691+0j)</t>
+  </si>
+  <si>
+    <t>(0.4524348345047078+0j)</t>
   </si>
 </sst>
 </file>
@@ -1580,16 +1571,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="D2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="E2" t="s">
-        <v>262</v>
+        <v>259</v>
       </c>
       <c r="F2" t="s">
-        <v>273</v>
+        <v>270</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1600,16 +1591,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>254</v>
+        <v>79</v>
       </c>
       <c r="D3" t="s">
-        <v>258</v>
+        <v>167</v>
       </c>
       <c r="E3" t="s">
-        <v>263</v>
+        <v>260</v>
       </c>
       <c r="F3" t="s">
-        <v>274</v>
+        <v>271</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1620,16 +1611,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>255</v>
+        <v>80</v>
       </c>
       <c r="D4" t="s">
-        <v>259</v>
+        <v>168</v>
       </c>
       <c r="E4" t="s">
-        <v>264</v>
+        <v>261</v>
       </c>
       <c r="F4" t="s">
-        <v>275</v>
+        <v>272</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1640,16 +1631,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>256</v>
+        <v>81</v>
       </c>
       <c r="D5" t="s">
-        <v>260</v>
+        <v>169</v>
       </c>
       <c r="E5" t="s">
-        <v>265</v>
+        <v>262</v>
       </c>
       <c r="F5" t="s">
-        <v>276</v>
+        <v>273</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1660,16 +1651,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D6" t="s">
-        <v>172</v>
+        <v>256</v>
       </c>
       <c r="E6" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
       <c r="F6" t="s">
-        <v>277</v>
+        <v>274</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1680,16 +1671,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="D7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="E7" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="F7" t="s">
-        <v>278</v>
+        <v>275</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1700,16 +1691,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>88</v>
+        <v>254</v>
       </c>
       <c r="D8" t="s">
-        <v>174</v>
+        <v>257</v>
       </c>
       <c r="E8" t="s">
-        <v>268</v>
+        <v>265</v>
       </c>
       <c r="F8" t="s">
-        <v>279</v>
+        <v>276</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1720,16 +1711,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="D9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="E9" t="s">
-        <v>269</v>
+        <v>266</v>
       </c>
       <c r="F9" t="s">
-        <v>280</v>
+        <v>277</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1740,16 +1731,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>257</v>
+        <v>86</v>
       </c>
       <c r="D10" t="s">
-        <v>261</v>
+        <v>174</v>
       </c>
       <c r="E10" t="s">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="F10" t="s">
-        <v>281</v>
+        <v>278</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -1760,16 +1751,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="D11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="E11" t="s">
-        <v>271</v>
+        <v>268</v>
       </c>
       <c r="F11" t="s">
-        <v>282</v>
+        <v>279</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -1780,16 +1771,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>92</v>
+        <v>255</v>
       </c>
       <c r="D12" t="s">
-        <v>178</v>
+        <v>258</v>
       </c>
       <c r="E12" t="s">
-        <v>272</v>
+        <v>269</v>
       </c>
       <c r="F12" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
   </sheetData>
@@ -1830,16 +1821,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="E2" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="F2" t="s">
-        <v>295</v>
+        <v>292</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -1850,16 +1841,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="E3" t="s">
-        <v>285</v>
+        <v>282</v>
       </c>
       <c r="F3" t="s">
-        <v>296</v>
+        <v>293</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -1870,16 +1861,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="E4" t="s">
-        <v>286</v>
+        <v>283</v>
       </c>
       <c r="F4" t="s">
-        <v>297</v>
+        <v>294</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -1890,16 +1881,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="E5" t="s">
-        <v>287</v>
+        <v>284</v>
       </c>
       <c r="F5" t="s">
-        <v>298</v>
+        <v>295</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -1910,16 +1901,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="E6" t="s">
-        <v>288</v>
+        <v>285</v>
       </c>
       <c r="F6" t="s">
-        <v>299</v>
+        <v>296</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -1930,16 +1921,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="D7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="E7" t="s">
-        <v>289</v>
+        <v>286</v>
       </c>
       <c r="F7" t="s">
-        <v>300</v>
+        <v>297</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -1950,16 +1941,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="D8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="E8" t="s">
-        <v>290</v>
+        <v>287</v>
       </c>
       <c r="F8" t="s">
-        <v>301</v>
+        <v>298</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -1970,16 +1961,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="D9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="E9" t="s">
-        <v>291</v>
+        <v>288</v>
       </c>
       <c r="F9" t="s">
-        <v>302</v>
+        <v>299</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -1990,16 +1981,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="D10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="E10" t="s">
-        <v>292</v>
+        <v>289</v>
       </c>
       <c r="F10" t="s">
-        <v>303</v>
+        <v>300</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2010,16 +2001,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="D11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="E11" t="s">
-        <v>293</v>
+        <v>290</v>
       </c>
       <c r="F11" t="s">
-        <v>304</v>
+        <v>301</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2030,16 +2021,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="D12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="E12" t="s">
-        <v>294</v>
+        <v>291</v>
       </c>
       <c r="F12" t="s">
-        <v>305</v>
+        <v>302</v>
       </c>
     </row>
   </sheetData>
@@ -2583,13 +2574,13 @@
         <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="E2" t="s">
-        <v>82</v>
+        <v>78</v>
       </c>
       <c r="F2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2600,16 +2591,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>67</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="E3" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
       <c r="F3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2620,16 +2611,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>68</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="E4" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="F4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2646,10 +2637,10 @@
         <v>48</v>
       </c>
       <c r="E5" t="s">
-        <v>85</v>
+        <v>81</v>
       </c>
       <c r="F5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2666,10 +2657,10 @@
         <v>49</v>
       </c>
       <c r="E6" t="s">
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="F6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2683,13 +2674,13 @@
         <v>28</v>
       </c>
       <c r="D7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="E7" t="s">
-        <v>87</v>
+        <v>83</v>
       </c>
       <c r="F7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2700,16 +2691,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="D8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="E8" t="s">
-        <v>88</v>
+        <v>84</v>
       </c>
       <c r="F8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2720,16 +2711,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>70</v>
+        <v>30</v>
       </c>
       <c r="D9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="E9" t="s">
-        <v>89</v>
+        <v>85</v>
       </c>
       <c r="F9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2740,16 +2731,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
       <c r="D10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="E10" t="s">
-        <v>90</v>
+        <v>86</v>
       </c>
       <c r="F10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -2760,16 +2751,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="D11" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="E11" t="s">
-        <v>91</v>
+        <v>87</v>
       </c>
       <c r="F11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -2780,16 +2771,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="D12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="E12" t="s">
-        <v>92</v>
+        <v>88</v>
       </c>
       <c r="F12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
     </row>
   </sheetData>
@@ -2836,10 +2827,10 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -2856,10 +2847,10 @@
         <v>57</v>
       </c>
       <c r="E3" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
       <c r="F3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -2876,10 +2867,10 @@
         <v>58</v>
       </c>
       <c r="E4" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="F4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -2896,10 +2887,10 @@
         <v>59</v>
       </c>
       <c r="E5" t="s">
-        <v>107</v>
+        <v>103</v>
       </c>
       <c r="F5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -2916,10 +2907,10 @@
         <v>60</v>
       </c>
       <c r="E6" t="s">
-        <v>97</v>
+        <v>104</v>
       </c>
       <c r="F6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -2936,10 +2927,10 @@
         <v>61</v>
       </c>
       <c r="E7" t="s">
-        <v>98</v>
+        <v>105</v>
       </c>
       <c r="F7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -2956,10 +2947,10 @@
         <v>62</v>
       </c>
       <c r="E8" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="F8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -2976,10 +2967,10 @@
         <v>63</v>
       </c>
       <c r="E9" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="F9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -2996,10 +2987,10 @@
         <v>64</v>
       </c>
       <c r="E10" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3016,10 +3007,10 @@
         <v>65</v>
       </c>
       <c r="E11" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="F11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3036,10 +3027,10 @@
         <v>66</v>
       </c>
       <c r="E12" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="F12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
   </sheetData>
@@ -3080,16 +3071,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D2" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3100,16 +3091,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3120,16 +3111,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="D4" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F4" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3140,16 +3131,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="D5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="E5" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F5" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3160,16 +3151,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="D6" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="E6" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="F6" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3180,16 +3171,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D7" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="E7" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="F7" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3200,16 +3191,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="D8" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="E8" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="F8" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3220,16 +3211,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D9" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="E9" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="F9" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3240,16 +3231,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D10" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="E10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="F10" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3260,16 +3251,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="D11" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="E11" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="F11" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3280,16 +3271,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D12" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="E12" t="s">
-        <v>156</v>
+        <v>154</v>
       </c>
       <c r="F12" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
     </row>
   </sheetData>
@@ -3330,16 +3321,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="D2" t="s">
-        <v>93</v>
+        <v>89</v>
       </c>
       <c r="E2" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
       <c r="F2" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3350,16 +3341,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="D3" t="s">
-        <v>94</v>
+        <v>90</v>
       </c>
       <c r="E3" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="F3" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3370,16 +3361,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="D4" t="s">
-        <v>95</v>
+        <v>91</v>
       </c>
       <c r="E4" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
       <c r="F4" t="s">
-        <v>181</v>
+        <v>179</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3393,13 +3384,13 @@
         <v>48</v>
       </c>
       <c r="D5" t="s">
-        <v>96</v>
+        <v>92</v>
       </c>
       <c r="E5" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="F5" t="s">
-        <v>182</v>
+        <v>180</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3413,13 +3404,13 @@
         <v>49</v>
       </c>
       <c r="D6" t="s">
-        <v>97</v>
+        <v>93</v>
       </c>
       <c r="E6" t="s">
-        <v>172</v>
+        <v>170</v>
       </c>
       <c r="F6" t="s">
-        <v>183</v>
+        <v>181</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3430,16 +3421,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>50</v>
+        <v>73</v>
       </c>
       <c r="D7" t="s">
-        <v>98</v>
+        <v>94</v>
       </c>
       <c r="E7" t="s">
-        <v>173</v>
+        <v>171</v>
       </c>
       <c r="F7" t="s">
-        <v>184</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3450,16 +3441,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>77</v>
+        <v>74</v>
       </c>
       <c r="D8" t="s">
-        <v>99</v>
+        <v>95</v>
       </c>
       <c r="E8" t="s">
-        <v>174</v>
+        <v>172</v>
       </c>
       <c r="F8" t="s">
-        <v>185</v>
+        <v>183</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3470,16 +3461,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>78</v>
+        <v>75</v>
       </c>
       <c r="D9" t="s">
-        <v>100</v>
+        <v>96</v>
       </c>
       <c r="E9" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
       <c r="F9" t="s">
-        <v>186</v>
+        <v>184</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3490,16 +3481,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>79</v>
+        <v>76</v>
       </c>
       <c r="D10" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
       <c r="E10" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="F10" t="s">
-        <v>187</v>
+        <v>185</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3510,16 +3501,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>80</v>
+        <v>54</v>
       </c>
       <c r="D11" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="E11" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
       <c r="F11" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3530,16 +3521,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>81</v>
+        <v>77</v>
       </c>
       <c r="D12" t="s">
-        <v>103</v>
+        <v>99</v>
       </c>
       <c r="E12" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="F12" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
     </row>
   </sheetData>
@@ -3580,16 +3571,16 @@
         <v>0</v>
       </c>
       <c r="C2" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="D2" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
       <c r="E2" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="F2" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
     </row>
     <row r="3" spans="1:6">
@@ -3600,16 +3591,16 @@
         <v>0</v>
       </c>
       <c r="C3" t="s">
-        <v>191</v>
+        <v>189</v>
       </c>
       <c r="D3" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="E3" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="F3" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
     </row>
     <row r="4" spans="1:6">
@@ -3620,16 +3611,16 @@
         <v>0</v>
       </c>
       <c r="C4" t="s">
-        <v>192</v>
+        <v>190</v>
       </c>
       <c r="D4" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="E4" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="F4" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="5" spans="1:6">
@@ -3640,16 +3631,16 @@
         <v>0</v>
       </c>
       <c r="C5" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
       <c r="D5" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="E5" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="F5" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
     </row>
     <row r="6" spans="1:6">
@@ -3660,16 +3651,16 @@
         <v>0</v>
       </c>
       <c r="C6" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="D6" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="E6" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="F6" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="7" spans="1:6">
@@ -3680,16 +3671,16 @@
         <v>0</v>
       </c>
       <c r="C7" t="s">
-        <v>195</v>
+        <v>193</v>
       </c>
       <c r="D7" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="E7" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="F7" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
     </row>
     <row r="8" spans="1:6">
@@ -3700,16 +3691,16 @@
         <v>0</v>
       </c>
       <c r="C8" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
       <c r="D8" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="E8" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="F8" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:6">
@@ -3720,16 +3711,16 @@
         <v>0</v>
       </c>
       <c r="C9" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
       <c r="D9" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="E9" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="F9" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
     </row>
     <row r="10" spans="1:6">
@@ -3740,16 +3731,16 @@
         <v>0</v>
       </c>
       <c r="C10" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
       <c r="D10" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="E10" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="F10" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
     </row>
     <row r="11" spans="1:6">
@@ -3760,16 +3751,16 @@
         <v>0</v>
       </c>
       <c r="C11" t="s">
-        <v>199</v>
+        <v>197</v>
       </c>
       <c r="D11" t="s">
-        <v>210</v>
+        <v>208</v>
       </c>
       <c r="E11" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="F11" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
     </row>
     <row r="12" spans="1:6">
@@ -3780,16 +3771,16 @@
         <v>0</v>
       </c>
       <c r="C12" t="s">
-        <v>200</v>
+        <v>198</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>209</v>
       </c>
       <c r="E12" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="F12" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
     </row>
   </sheetData>
@@ -3833,10 +3824,10 @@
         <v>56</v>
       </c>
       <c r="D2" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="E2" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="F2" t="s">
         <v>243</v>
@@ -3853,10 +3844,10 @@
         <v>57</v>
       </c>
       <c r="D3" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E3" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="F3" t="s">
         <v>244</v>
@@ -3873,10 +3864,10 @@
         <v>58</v>
       </c>
       <c r="D4" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="E4" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="F4" t="s">
         <v>245</v>
@@ -3893,10 +3884,10 @@
         <v>59</v>
       </c>
       <c r="D5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="E5" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="F5" t="s">
         <v>246</v>
@@ -3913,10 +3904,10 @@
         <v>60</v>
       </c>
       <c r="D6" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="F6" t="s">
         <v>247</v>
@@ -3933,10 +3924,10 @@
         <v>61</v>
       </c>
       <c r="D7" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="E7" t="s">
-        <v>184</v>
+        <v>237</v>
       </c>
       <c r="F7" t="s">
         <v>248</v>
@@ -3953,10 +3944,10 @@
         <v>62</v>
       </c>
       <c r="D8" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E8" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="F8" t="s">
         <v>249</v>
@@ -3973,10 +3964,10 @@
         <v>63</v>
       </c>
       <c r="D9" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="E9" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="F9" t="s">
         <v>250</v>
@@ -3993,10 +3984,10 @@
         <v>64</v>
       </c>
       <c r="D10" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="E10" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="F10" t="s">
         <v>251</v>
@@ -4013,10 +4004,10 @@
         <v>65</v>
       </c>
       <c r="D11" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="E11" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="F11" t="s">
         <v>252</v>
@@ -4033,10 +4024,10 @@
         <v>66</v>
       </c>
       <c r="D12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="E12" t="s">
-        <v>189</v>
+        <v>242</v>
       </c>
       <c r="F12" t="s">
         <v>253</v>
